--- a/excel/spring_2016.xlsx
+++ b/excel/spring_2016.xlsx
@@ -5729,7 +5729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>

--- a/excel/spring_2016.xlsx
+++ b/excel/spring_2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="-18920" windowWidth="21600" windowHeight="38400" tabRatio="500"/>
+    <workbookView xWindow="-21600" yWindow="-18920" windowWidth="21600" windowHeight="38400" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="temp" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cleaned!$A$1:$T$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cleaned!$B$1:$U$63</definedName>
   </definedNames>
   <calcPr calcId="150000" calcMode="autoNoTable" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12825" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12826" uniqueCount="721">
   <si>
     <t>inspection</t>
   </si>
@@ -2206,6 +2206,9 @@
   <si>
     <t>62 dispo</t>
   </si>
+  <si>
+    <t>coil_chrono</t>
+  </si>
 </sst>
 </file>
 
@@ -2457,7 +2460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2565,6 +2568,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2574,25 +2582,11 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3899,7 +3893,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -4020,7 +4013,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -4531,7 +4523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -4541,18 +4533,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>707</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>706</v>
       </c>
       <c r="B2" s="18">
-        <f>SUM(Cleaned!J1:J63)</f>
+        <f>SUM(Cleaned!K1:K63)</f>
         <v>62</v>
       </c>
       <c r="C2" s="17">
@@ -4568,7 +4560,7 @@
         <v>701</v>
       </c>
       <c r="B3" s="19">
-        <f>SUM(Cleaned!K2:K63)</f>
+        <f>SUM(Cleaned!L2:L63)</f>
         <v>29</v>
       </c>
       <c r="C3" s="17">
@@ -4610,7 +4602,7 @@
         <v>708</v>
       </c>
       <c r="B6" s="19">
-        <f>SUM(Cleaned!L2:L63)</f>
+        <f>SUM(Cleaned!M2:M63)</f>
         <v>56</v>
       </c>
       <c r="C6" s="17">
@@ -4669,3964 +4661,4154 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W98"/>
+  <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35:B63"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="19" max="19" width="78.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="43"/>
+    <col min="20" max="20" width="78.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="16" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="16" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>715</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>689</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>690</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>691</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>692</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>693</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>694</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>695</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>696</v>
       </c>
-      <c r="J1" s="14" t="s">
-        <v>0</v>
-      </c>
       <c r="K1" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>703</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>704</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>697</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>698</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>716</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>717</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>699</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>700</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="U1" s="37" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="30">
-        <v>58380842</v>
-      </c>
-      <c r="C2" s="31">
-        <v>42442</v>
+        <v>53</v>
+      </c>
+      <c r="C2" s="30">
+        <v>61329256</v>
       </c>
       <c r="D2" s="31">
-        <v>42442</v>
-      </c>
-      <c r="E2" s="32">
-        <v>42471.291886574072</v>
-      </c>
-      <c r="F2" s="30">
-        <v>3588</v>
+        <v>42539</v>
+      </c>
+      <c r="E2" s="31">
+        <v>42539</v>
+      </c>
+      <c r="F2" s="32">
+        <v>42625.051041666666</v>
       </c>
       <c r="G2" s="30">
-        <v>1356</v>
+        <v>1806</v>
       </c>
       <c r="H2" s="30">
-        <v>0.68</v>
+        <v>1673</v>
       </c>
       <c r="I2" s="30">
-        <v>25.965</v>
+        <v>1.25</v>
       </c>
       <c r="J2" s="30">
-        <v>1</v>
+        <v>29.718</v>
       </c>
       <c r="K2" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="30">
-        <f>IF(R2=1,0,1)</f>
         <v>1</v>
       </c>
       <c r="M2" s="30">
-        <v>1</v>
-      </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
+        <f>IF(S2=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="30">
+        <v>1</v>
+      </c>
+      <c r="O2" s="30">
+        <v>0</v>
+      </c>
       <c r="P2" s="30">
-        <f>O2-N2</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="35">
-        <f>P2/F2</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="30">
-        <v>1</v>
-      </c>
-      <c r="U2" s="8"/>
-      <c r="V2" s="2"/>
+        <v>1112</v>
+      </c>
+      <c r="Q2" s="30">
+        <f>P2-O2</f>
+        <v>1112</v>
+      </c>
+      <c r="R2" s="35">
+        <f>Q2/G2</f>
+        <v>0.61572535991140642</v>
+      </c>
+      <c r="S2" s="30"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="30">
+        <v>1</v>
+      </c>
+      <c r="V2" s="8"/>
       <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="30">
-        <v>58380903</v>
-      </c>
-      <c r="C3" s="31">
-        <v>42442</v>
+        <v>43</v>
+      </c>
+      <c r="C3" s="30">
+        <v>60674005</v>
       </c>
       <c r="D3" s="31">
-        <v>42442</v>
-      </c>
-      <c r="E3" s="32">
-        <v>42471.336261574077</v>
-      </c>
-      <c r="F3" s="30">
-        <v>3804</v>
+        <v>42518</v>
+      </c>
+      <c r="E3" s="31">
+        <v>42518</v>
+      </c>
+      <c r="F3" s="32">
+        <v>42625.145196759258</v>
       </c>
       <c r="G3" s="30">
-        <v>1351</v>
+        <v>3306</v>
       </c>
       <c r="H3" s="30">
-        <v>0.68</v>
+        <v>1662</v>
       </c>
       <c r="I3" s="30">
-        <v>27.492999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="J3" s="30">
-        <v>1</v>
+        <v>29.51</v>
       </c>
       <c r="K3" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="30">
-        <f>IF(R3=1,0,1)</f>
         <v>1</v>
       </c>
       <c r="M3" s="30">
-        <v>1</v>
-      </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
+        <f>IF(S3=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="30">
+        <v>1</v>
+      </c>
+      <c r="O3" s="30">
+        <v>0</v>
+      </c>
       <c r="P3" s="30">
-        <f>O3-N3</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="35">
-        <f>P3/F3</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="30"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="30">
-        <v>1</v>
-      </c>
-      <c r="U3" s="8"/>
+        <v>1910</v>
+      </c>
+      <c r="Q3" s="30">
+        <f>P3-O3</f>
+        <v>1910</v>
+      </c>
+      <c r="R3" s="35">
+        <f>Q3/G3</f>
+        <v>0.57773744706594077</v>
+      </c>
+      <c r="S3" s="30"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="30">
+        <v>1</v>
+      </c>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
     </row>
-    <row r="4" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="30">
-        <v>58637524</v>
-      </c>
-      <c r="C4" s="31">
-        <v>42451</v>
+        <v>50</v>
+      </c>
+      <c r="C4" s="30">
+        <v>61157303</v>
       </c>
       <c r="D4" s="31">
-        <v>42451</v>
-      </c>
-      <c r="E4" s="32">
-        <v>42471.107314814813</v>
-      </c>
-      <c r="F4" s="30">
-        <v>1772</v>
+        <v>42534</v>
+      </c>
+      <c r="E4" s="31">
+        <v>42534</v>
+      </c>
+      <c r="F4" s="32">
+        <v>42625.020115740743</v>
       </c>
       <c r="G4" s="30">
-        <v>1350</v>
+        <v>3306</v>
       </c>
       <c r="H4" s="30">
-        <v>1.25</v>
+        <v>1643</v>
       </c>
       <c r="I4" s="30">
-        <v>23.481999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="J4" s="30">
-        <v>1</v>
+        <v>29.49</v>
       </c>
       <c r="K4" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="30">
-        <f>IF(R4=1,0,1)</f>
         <v>1</v>
       </c>
       <c r="M4" s="30">
-        <v>1</v>
-      </c>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
+        <f>IF(S4=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="30">
+        <v>1</v>
+      </c>
+      <c r="O4" s="30">
+        <v>0</v>
+      </c>
       <c r="P4" s="30">
-        <f>O4-N4</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="35">
-        <f>P4/F4</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="30"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="30">
-        <v>1</v>
-      </c>
-      <c r="U4" s="8"/>
+        <v>1625</v>
+      </c>
+      <c r="Q4" s="30">
+        <f>P4-O4</f>
+        <v>1625</v>
+      </c>
+      <c r="R4" s="35">
+        <f>Q4/G4</f>
+        <v>0.49153055051421657</v>
+      </c>
+      <c r="S4" s="30"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="30">
+        <v>1</v>
+      </c>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
     </row>
-    <row r="5" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="30">
-        <v>58637555</v>
-      </c>
-      <c r="C5" s="31">
-        <v>42451</v>
+        <v>39</v>
+      </c>
+      <c r="C5" s="30">
+        <v>60011835</v>
       </c>
       <c r="D5" s="31">
-        <v>42451</v>
-      </c>
-      <c r="E5" s="32">
-        <v>42471.119050925925</v>
-      </c>
-      <c r="F5" s="30">
-        <v>1146</v>
+        <v>42495</v>
+      </c>
+      <c r="E5" s="31">
+        <v>42495</v>
+      </c>
+      <c r="F5" s="32">
+        <v>42625.498807870368</v>
       </c>
       <c r="G5" s="30">
-        <v>1304</v>
+        <v>3186</v>
       </c>
       <c r="H5" s="30">
-        <v>2</v>
+        <v>1557</v>
       </c>
       <c r="I5" s="30">
-        <v>23.504000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="J5" s="30">
-        <v>1</v>
+        <v>25.827999999999999</v>
       </c>
       <c r="K5" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="30">
-        <f>IF(R5=1,0,1)</f>
         <v>1</v>
       </c>
       <c r="M5" s="30">
-        <v>1</v>
-      </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
+        <f>IF(S5=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N5" s="30">
+        <v>1</v>
+      </c>
+      <c r="O5" s="30">
+        <v>0</v>
+      </c>
       <c r="P5" s="30">
-        <f>O5-N5</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="35">
-        <f>P5/F5</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="30"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="30">
-        <v>1</v>
-      </c>
-      <c r="U5" s="8"/>
+        <v>1500</v>
+      </c>
+      <c r="Q5" s="30">
+        <f>P5-O5</f>
+        <v>1500</v>
+      </c>
+      <c r="R5" s="35">
+        <f>Q5/G5</f>
+        <v>0.47080979284369112</v>
+      </c>
+      <c r="S5" s="30"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="30">
+        <v>1</v>
+      </c>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
     </row>
-    <row r="6" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="30">
-        <v>58714775</v>
-      </c>
-      <c r="C6" s="31">
-        <v>42453</v>
+        <v>42</v>
+      </c>
+      <c r="C6" s="30">
+        <v>60179906</v>
       </c>
       <c r="D6" s="31">
-        <v>42453</v>
-      </c>
-      <c r="E6" s="32">
-        <v>42471.180659722224</v>
-      </c>
-      <c r="F6" s="30">
-        <v>559</v>
+        <v>42501</v>
+      </c>
+      <c r="E6" s="31">
+        <v>42501</v>
+      </c>
+      <c r="F6" s="32">
+        <v>42625.539120370369</v>
       </c>
       <c r="G6" s="30">
-        <v>1302</v>
+        <v>3226</v>
       </c>
       <c r="H6" s="30">
-        <v>1.99</v>
+        <v>1846</v>
       </c>
       <c r="I6" s="30">
-        <v>11.406000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="J6" s="30">
-        <v>1</v>
+        <v>28.061</v>
       </c>
       <c r="K6" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="30">
-        <f>IF(R6=1,0,1)</f>
         <v>1</v>
       </c>
       <c r="M6" s="30">
-        <v>1</v>
-      </c>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
+        <f>IF(S6=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="30">
+        <v>1</v>
+      </c>
+      <c r="O6" s="30">
+        <v>100</v>
+      </c>
       <c r="P6" s="30">
-        <f>O6-N6</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="35">
-        <f>P6/F6</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="30"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="30">
-        <v>1</v>
-      </c>
-      <c r="U6" s="8"/>
+        <v>1506</v>
+      </c>
+      <c r="Q6" s="30">
+        <f>P6-O6</f>
+        <v>1406</v>
+      </c>
+      <c r="R6" s="35">
+        <f>Q6/G6</f>
+        <v>0.43583384996900187</v>
+      </c>
+      <c r="S6" s="30"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="30">
+        <v>1</v>
+      </c>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
     </row>
-    <row r="7" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="30">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="30">
-        <v>58752171</v>
-      </c>
-      <c r="C7" s="31">
-        <v>42453</v>
+        <v>0</v>
+      </c>
+      <c r="C7" s="30">
+        <v>58360839</v>
       </c>
       <c r="D7" s="31">
-        <v>42453</v>
-      </c>
-      <c r="E7" s="32">
-        <v>42471.18546296296</v>
-      </c>
-      <c r="F7" s="30">
-        <v>548</v>
+        <v>42441</v>
+      </c>
+      <c r="E7" s="31">
+        <v>42441</v>
+      </c>
+      <c r="F7" s="32">
+        <v>42471.476689814815</v>
       </c>
       <c r="G7" s="30">
-        <v>1302</v>
+        <v>2588</v>
       </c>
       <c r="H7" s="30">
-        <v>1.99</v>
+        <v>1579</v>
       </c>
       <c r="I7" s="30">
-        <v>11.192</v>
+        <v>0.64</v>
       </c>
       <c r="J7" s="30">
-        <v>1</v>
+        <v>20.646000000000001</v>
       </c>
       <c r="K7" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="30">
-        <f>IF(R7=1,0,1)</f>
         <v>1</v>
       </c>
       <c r="M7" s="30">
-        <v>1</v>
-      </c>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
+        <f>IF(S7=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N7" s="30">
+        <v>1</v>
+      </c>
+      <c r="O7" s="30">
+        <v>142</v>
+      </c>
       <c r="P7" s="30">
-        <f>O7-N7</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="35">
-        <f>P7/F7</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="30"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="30">
-        <v>1</v>
-      </c>
-      <c r="U7" s="8"/>
+        <v>1092</v>
+      </c>
+      <c r="Q7" s="30">
+        <f>P7-O7</f>
+        <v>950</v>
+      </c>
+      <c r="R7" s="35">
+        <f>Q7/G7</f>
+        <v>0.36707882534775887</v>
+      </c>
+      <c r="S7" s="30"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="30">
+        <v>1</v>
+      </c>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
     </row>
-    <row r="8" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="30">
-        <v>58752669</v>
-      </c>
-      <c r="C8" s="31">
-        <v>42453</v>
+        <v>28</v>
+      </c>
+      <c r="C8" s="30">
+        <v>59610261</v>
       </c>
       <c r="D8" s="31">
-        <v>42453</v>
-      </c>
-      <c r="E8" s="32">
-        <v>42471.461608796293</v>
-      </c>
-      <c r="F8" s="30">
-        <v>3351</v>
+        <v>42483</v>
+      </c>
+      <c r="E8" s="31">
+        <v>42483</v>
+      </c>
+      <c r="F8" s="32">
+        <v>42499.007789351854</v>
       </c>
       <c r="G8" s="30">
-        <v>1357</v>
+        <v>3368</v>
       </c>
       <c r="H8" s="30">
-        <v>0.68</v>
+        <v>1633</v>
       </c>
       <c r="I8" s="30">
-        <v>24.216999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="J8" s="30">
-        <v>1</v>
+        <v>29.872</v>
       </c>
       <c r="K8" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="30">
-        <f>IF(R8=1,0,1)</f>
         <v>1</v>
       </c>
       <c r="M8" s="30">
-        <v>1</v>
-      </c>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
+        <f>IF(S8=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N8" s="30">
+        <v>1</v>
+      </c>
+      <c r="O8" s="30">
+        <v>74</v>
+      </c>
       <c r="P8" s="30">
-        <f>O8-N8</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="35">
-        <f>P8/F8</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="30"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="30">
-        <v>1</v>
-      </c>
-      <c r="U8" s="8"/>
+        <v>1273</v>
+      </c>
+      <c r="Q8" s="30">
+        <f>P8-O8</f>
+        <v>1199</v>
+      </c>
+      <c r="R8" s="35">
+        <f>Q8/G8</f>
+        <v>0.35599762470308788</v>
+      </c>
+      <c r="S8" s="30"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="30">
+        <v>1</v>
+      </c>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
     </row>
-    <row r="9" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="30">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="30">
-        <v>58752676</v>
-      </c>
-      <c r="C9" s="31">
-        <v>42453</v>
+        <v>59</v>
+      </c>
+      <c r="C9" s="30">
+        <v>61441985</v>
       </c>
       <c r="D9" s="31">
-        <v>42453</v>
-      </c>
-      <c r="E9" s="32">
-        <v>42471.465624999997</v>
-      </c>
-      <c r="F9" s="30">
-        <v>78</v>
+        <v>42543</v>
+      </c>
+      <c r="E9" s="31">
+        <v>42543</v>
+      </c>
+      <c r="F9" s="32">
+        <v>42625.009826388887</v>
       </c>
       <c r="G9" s="30">
-        <v>1357</v>
+        <v>3382</v>
       </c>
       <c r="H9" s="30">
-        <v>0.68</v>
+        <v>1614</v>
       </c>
       <c r="I9" s="30">
-        <v>0.56999999999999995</v>
+        <v>0.69</v>
       </c>
       <c r="J9" s="30">
-        <v>1</v>
+        <v>29.692</v>
       </c>
       <c r="K9" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="30">
-        <f>IF(R9=1,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="30">
-        <v>1</v>
-      </c>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
+        <f>IF(S9=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N9" s="30">
+        <v>1</v>
+      </c>
+      <c r="O9" s="30">
+        <v>0</v>
+      </c>
       <c r="P9" s="30">
-        <f>O9-N9</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="35">
-        <f>P9/F9</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="30">
-        <v>1</v>
-      </c>
-      <c r="S9" s="34" t="s">
-        <v>712</v>
-      </c>
-      <c r="T9" s="30">
-        <v>1</v>
-      </c>
-      <c r="U9" s="8"/>
+        <v>1175</v>
+      </c>
+      <c r="Q9" s="30">
+        <f>P9-O9</f>
+        <v>1175</v>
+      </c>
+      <c r="R9" s="35">
+        <f>Q9/G9</f>
+        <v>0.34742755765819044</v>
+      </c>
+      <c r="S9" s="30"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="30">
+        <v>1</v>
+      </c>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
     </row>
-    <row r="10" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="30">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="30">
-        <v>58752683</v>
-      </c>
-      <c r="C10" s="31">
-        <v>42453</v>
+        <v>24</v>
+      </c>
+      <c r="C10" s="30">
+        <v>59518934</v>
       </c>
       <c r="D10" s="31">
-        <v>42453</v>
-      </c>
-      <c r="E10" s="32">
-        <v>42471.47457175926</v>
-      </c>
-      <c r="F10" s="30">
-        <v>3817</v>
+        <v>42478</v>
+      </c>
+      <c r="E10" s="31">
+        <v>42478</v>
+      </c>
+      <c r="F10" s="32">
+        <v>42499.168043981481</v>
       </c>
       <c r="G10" s="30">
-        <v>1353</v>
+        <v>3437</v>
       </c>
       <c r="H10" s="30">
-        <v>0.68</v>
+        <v>1600</v>
       </c>
       <c r="I10" s="30">
-        <v>27.58</v>
+        <v>0.69</v>
       </c>
       <c r="J10" s="30">
-        <v>1</v>
+        <v>29.808</v>
       </c>
       <c r="K10" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="30">
-        <f>IF(R10=1,0,1)</f>
         <v>1</v>
       </c>
       <c r="M10" s="30">
-        <v>1</v>
-      </c>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
+        <f>IF(S10=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N10" s="30">
+        <v>1</v>
+      </c>
+      <c r="O10" s="30">
+        <v>37</v>
+      </c>
       <c r="P10" s="30">
-        <f>O10-N10</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="35">
-        <f>P10/F10</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="30"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="30">
-        <v>1</v>
-      </c>
-      <c r="U10" s="8"/>
+        <v>1171</v>
+      </c>
+      <c r="Q10" s="30">
+        <f>P10-O10</f>
+        <v>1134</v>
+      </c>
+      <c r="R10" s="35">
+        <f>Q10/G10</f>
+        <v>0.32993890020366601</v>
+      </c>
+      <c r="S10" s="30"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="30">
+        <v>1</v>
+      </c>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
     </row>
-    <row r="11" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="30">
-        <v>58771985</v>
-      </c>
-      <c r="C11" s="31">
-        <v>42454</v>
+        <v>29</v>
+      </c>
+      <c r="C11" s="30">
+        <v>59630090</v>
       </c>
       <c r="D11" s="31">
-        <v>42454</v>
-      </c>
-      <c r="E11" s="32">
-        <v>42471.074166666665</v>
-      </c>
-      <c r="F11" s="30">
-        <v>3993</v>
+        <v>42483</v>
+      </c>
+      <c r="E11" s="31">
+        <v>42483</v>
+      </c>
+      <c r="F11" s="32">
+        <v>42499.399537037039</v>
       </c>
       <c r="G11" s="30">
-        <v>1262</v>
+        <v>3108</v>
       </c>
       <c r="H11" s="30">
-        <v>0.6</v>
+        <v>1571</v>
       </c>
       <c r="I11" s="30">
-        <v>23.785</v>
+        <v>0.68</v>
       </c>
       <c r="J11" s="30">
-        <v>1</v>
+        <v>26.16</v>
       </c>
       <c r="K11" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="30">
-        <f>IF(R11=1,0,1)</f>
         <v>1</v>
       </c>
       <c r="M11" s="30">
-        <v>1</v>
-      </c>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
+        <f>IF(S11=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N11" s="30">
+        <v>1</v>
+      </c>
+      <c r="O11" s="30">
+        <v>79</v>
+      </c>
       <c r="P11" s="30">
-        <f>O11-N11</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="35">
-        <f>P11/F11</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="30"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="30">
-        <v>1</v>
-      </c>
-      <c r="U11" s="8"/>
+        <v>1098</v>
+      </c>
+      <c r="Q11" s="30">
+        <f>P11-O11</f>
+        <v>1019</v>
+      </c>
+      <c r="R11" s="35">
+        <f>Q11/G11</f>
+        <v>0.32786357786357784</v>
+      </c>
+      <c r="S11" s="30"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="30">
+        <v>1</v>
+      </c>
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
     </row>
-    <row r="12" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="30">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="30">
-        <v>58772191</v>
-      </c>
-      <c r="C12" s="31">
-        <v>42454</v>
+        <v>17</v>
+      </c>
+      <c r="C12" s="30">
+        <v>59109583</v>
       </c>
       <c r="D12" s="31">
-        <v>42454</v>
-      </c>
-      <c r="E12" s="32">
-        <v>42471.172199074077</v>
-      </c>
-      <c r="F12" s="30">
-        <v>2747</v>
+        <v>42464</v>
+      </c>
+      <c r="E12" s="31">
+        <v>42464</v>
+      </c>
+      <c r="F12" s="32">
+        <v>42499.141365740739</v>
       </c>
       <c r="G12" s="30">
-        <v>1012</v>
+        <v>3300</v>
       </c>
       <c r="H12" s="30">
-        <v>0.9</v>
+        <v>1663</v>
       </c>
       <c r="I12" s="30">
-        <v>19.664999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="J12" s="30">
-        <v>1</v>
+        <v>29.53</v>
       </c>
       <c r="K12" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="30">
-        <f>IF(R12=1,0,1)</f>
         <v>1</v>
       </c>
       <c r="M12" s="30">
-        <v>1</v>
-      </c>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
+        <f>IF(S12=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="30">
+        <v>1</v>
+      </c>
+      <c r="O12" s="30">
+        <v>600</v>
+      </c>
       <c r="P12" s="30">
-        <f>O12-N12</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="35">
-        <f>P12/F12</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="30"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="30">
-        <v>1</v>
-      </c>
-      <c r="U12" s="8"/>
+        <v>1640</v>
+      </c>
+      <c r="Q12" s="30">
+        <f>P12-O12</f>
+        <v>1040</v>
+      </c>
+      <c r="R12" s="35">
+        <f>Q12/G12</f>
+        <v>0.31515151515151513</v>
+      </c>
+      <c r="S12" s="30"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="30">
+        <v>1</v>
+      </c>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
     </row>
-    <row r="13" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="30">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13" s="30">
-        <v>58943395</v>
-      </c>
-      <c r="C13" s="31">
-        <v>42460</v>
+        <v>40</v>
+      </c>
+      <c r="C13" s="30">
+        <v>60044844</v>
       </c>
       <c r="D13" s="31">
-        <v>42460</v>
-      </c>
-      <c r="E13" s="32">
-        <v>42471.61928240741</v>
-      </c>
-      <c r="F13" s="30">
-        <v>3371</v>
+        <v>42496</v>
+      </c>
+      <c r="E13" s="31">
+        <v>42496</v>
+      </c>
+      <c r="F13" s="32">
+        <v>42625.689282407409</v>
       </c>
       <c r="G13" s="30">
-        <v>1175</v>
+        <v>3297</v>
       </c>
       <c r="H13" s="30">
-        <v>0.71</v>
+        <v>1665</v>
       </c>
       <c r="I13" s="30">
-        <v>22.062999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="J13" s="30">
-        <v>1</v>
+        <v>29.885000000000002</v>
       </c>
       <c r="K13" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="30">
-        <f>IF(R13=1,0,1)</f>
         <v>1</v>
       </c>
       <c r="M13" s="30">
-        <v>1</v>
-      </c>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
+        <f>IF(S13=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N13" s="30">
+        <v>1</v>
+      </c>
+      <c r="O13" s="30">
+        <v>0</v>
+      </c>
       <c r="P13" s="30">
-        <f>O13-N13</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="35">
-        <f>P13/F13</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="30"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="30">
-        <v>1</v>
-      </c>
-      <c r="U13" s="8"/>
+        <v>982</v>
+      </c>
+      <c r="Q13" s="30">
+        <f>P13-O13</f>
+        <v>982</v>
+      </c>
+      <c r="R13" s="35">
+        <f>Q13/G13</f>
+        <v>0.29784652714589022</v>
+      </c>
+      <c r="S13" s="30"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="30">
+        <v>1</v>
+      </c>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
     </row>
-    <row r="14" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="30">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" s="30">
-        <v>59089665</v>
-      </c>
-      <c r="C14" s="31">
-        <v>42463</v>
+        <v>54</v>
+      </c>
+      <c r="C14" s="30">
+        <v>61345760</v>
       </c>
       <c r="D14" s="31">
-        <v>42463</v>
-      </c>
-      <c r="E14" s="32">
-        <v>42499.399444444447</v>
-      </c>
-      <c r="F14" s="30">
-        <v>899</v>
+        <v>42539</v>
+      </c>
+      <c r="E14" s="31">
+        <v>42539</v>
+      </c>
+      <c r="F14" s="32">
+        <v>42625.505601851852</v>
       </c>
       <c r="G14" s="30">
-        <v>1081</v>
+        <v>3288</v>
       </c>
       <c r="H14" s="30">
-        <v>2.46</v>
+        <v>1616</v>
       </c>
       <c r="I14" s="30">
-        <v>18.792999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="J14" s="30">
-        <v>1</v>
+        <v>28.888999999999999</v>
       </c>
       <c r="K14" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="30">
-        <f>IF(R14=1,0,1)</f>
         <v>1</v>
       </c>
       <c r="M14" s="30">
-        <v>1</v>
-      </c>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
+        <f>IF(S14=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N14" s="30">
+        <v>1</v>
+      </c>
+      <c r="O14" s="30">
+        <v>0</v>
+      </c>
       <c r="P14" s="30">
-        <f>O14-N14</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="35">
-        <f>P14/F14</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="30"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="30">
-        <v>1</v>
-      </c>
-      <c r="U14" s="8"/>
+        <v>961</v>
+      </c>
+      <c r="Q14" s="30">
+        <f>P14-O14</f>
+        <v>961</v>
+      </c>
+      <c r="R14" s="35">
+        <f>Q14/G14</f>
+        <v>0.29227493917274938</v>
+      </c>
+      <c r="S14" s="30"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="30">
+        <v>1</v>
+      </c>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
     </row>
-    <row r="15" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="30">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B15" s="30">
-        <v>59110020</v>
-      </c>
-      <c r="C15" s="31">
-        <v>42464</v>
+        <v>16</v>
+      </c>
+      <c r="C15" s="30">
+        <v>59109361</v>
       </c>
       <c r="D15" s="31">
-        <v>42464</v>
-      </c>
-      <c r="E15" s="32">
-        <v>42499.884467592594</v>
-      </c>
-      <c r="F15" s="30">
-        <v>3350</v>
+        <v>42463</v>
+      </c>
+      <c r="E15" s="31">
+        <v>42463</v>
+      </c>
+      <c r="F15" s="32">
+        <v>42499.983055555553</v>
       </c>
       <c r="G15" s="30">
-        <v>1601</v>
+        <v>2958</v>
       </c>
       <c r="H15" s="30">
+        <v>1689</v>
+      </c>
+      <c r="I15" s="30">
         <v>0.69</v>
       </c>
-      <c r="I15" s="30">
-        <v>29.077999999999999</v>
-      </c>
       <c r="J15" s="30">
-        <v>1</v>
+        <v>26.87</v>
       </c>
       <c r="K15" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="30">
-        <f>IF(R15=1,0,1)</f>
         <v>1</v>
       </c>
       <c r="M15" s="30">
-        <v>1</v>
-      </c>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
+        <f>IF(S15=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N15" s="30">
+        <v>1</v>
+      </c>
+      <c r="O15" s="30">
+        <v>0</v>
+      </c>
       <c r="P15" s="30">
-        <f>O15-N15</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="35">
-        <f>P15/F15</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="30"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="30">
-        <v>1</v>
-      </c>
-      <c r="U15" s="8"/>
+        <v>800</v>
+      </c>
+      <c r="Q15" s="30">
+        <f>P15-O15</f>
+        <v>800</v>
+      </c>
+      <c r="R15" s="35">
+        <f>Q15/G15</f>
+        <v>0.27045300878972278</v>
+      </c>
+      <c r="S15" s="30"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="30">
+        <v>1</v>
+      </c>
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
     </row>
-    <row r="16" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="30">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B16" s="30">
-        <v>59337379</v>
-      </c>
-      <c r="C16" s="31">
-        <v>42471</v>
+        <v>2</v>
+      </c>
+      <c r="C16" s="30">
+        <v>58380859</v>
       </c>
       <c r="D16" s="31">
-        <v>42471</v>
-      </c>
-      <c r="E16" s="32">
-        <v>42499.19803240741</v>
-      </c>
-      <c r="F16" s="30">
-        <v>3695</v>
+        <v>42442</v>
+      </c>
+      <c r="E16" s="31">
+        <v>42442</v>
+      </c>
+      <c r="F16" s="32">
+        <v>42471.299074074072</v>
       </c>
       <c r="G16" s="30">
-        <v>1345</v>
+        <v>3408</v>
       </c>
       <c r="H16" s="30">
-        <v>0.66</v>
+        <v>1354</v>
       </c>
       <c r="I16" s="30">
-        <v>25.991</v>
+        <v>0.68</v>
       </c>
       <c r="J16" s="30">
-        <v>1</v>
+        <v>24.620999999999999</v>
       </c>
       <c r="K16" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="30">
-        <f>IF(R16=1,0,1)</f>
         <v>1</v>
       </c>
       <c r="M16" s="30">
-        <v>1</v>
-      </c>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
+        <f>IF(S16=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N16" s="30">
+        <v>1</v>
+      </c>
+      <c r="O16" s="30">
+        <v>606</v>
+      </c>
       <c r="P16" s="30">
-        <f>O16-N16</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="35">
-        <f>P16/F16</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="30"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="30">
-        <v>1</v>
-      </c>
-      <c r="U16" s="8"/>
+        <v>1506</v>
+      </c>
+      <c r="Q16" s="30">
+        <f>P16-O16</f>
+        <v>900</v>
+      </c>
+      <c r="R16" s="35">
+        <f>Q16/G16</f>
+        <v>0.2640845070422535</v>
+      </c>
+      <c r="S16" s="30"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="30">
+        <v>1</v>
+      </c>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
     </row>
-    <row r="17" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="43">
-        <v>26</v>
-      </c>
-      <c r="B17" s="43">
-        <v>59591962</v>
-      </c>
-      <c r="C17" s="44">
-        <v>42482</v>
-      </c>
-      <c r="D17" s="44">
-        <v>42482</v>
-      </c>
-      <c r="E17" s="45">
-        <v>42499.615347222221</v>
-      </c>
-      <c r="F17" s="43">
-        <v>2773</v>
-      </c>
-      <c r="G17" s="43">
-        <v>1802</v>
-      </c>
-      <c r="H17" s="43">
+    <row r="17" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="30">
+        <v>15</v>
+      </c>
+      <c r="B17" s="30">
+        <v>37</v>
+      </c>
+      <c r="C17" s="30">
+        <v>59981981</v>
+      </c>
+      <c r="D17" s="31">
+        <v>42494</v>
+      </c>
+      <c r="E17" s="31">
+        <v>42494</v>
+      </c>
+      <c r="F17" s="32">
+        <v>42625.284930555557</v>
+      </c>
+      <c r="G17" s="30">
+        <v>3210</v>
+      </c>
+      <c r="H17" s="30">
+        <v>1667</v>
+      </c>
+      <c r="I17" s="30">
         <v>0.69</v>
       </c>
-      <c r="I17" s="43">
-        <v>27.09</v>
-      </c>
-      <c r="J17" s="43">
-        <v>1</v>
-      </c>
-      <c r="K17" s="43">
-        <v>0</v>
-      </c>
-      <c r="L17" s="43">
-        <f>IF(R17=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M17" s="43">
-        <v>1</v>
-      </c>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43">
-        <f>O17-N17</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="46">
-        <f>P17/F17</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="43"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="43">
-        <v>0</v>
-      </c>
-      <c r="U17" s="8"/>
+      <c r="J17" s="30">
+        <v>29.027999999999999</v>
+      </c>
+      <c r="K17" s="30">
+        <v>1</v>
+      </c>
+      <c r="L17" s="30">
+        <v>1</v>
+      </c>
+      <c r="M17" s="30">
+        <f>IF(S17=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N17" s="30">
+        <v>1</v>
+      </c>
+      <c r="O17" s="30">
+        <v>0</v>
+      </c>
+      <c r="P17" s="30">
+        <v>840</v>
+      </c>
+      <c r="Q17" s="30">
+        <f>P17-O17</f>
+        <v>840</v>
+      </c>
+      <c r="R17" s="35">
+        <f>Q17/G17</f>
+        <v>0.26168224299065418</v>
+      </c>
+      <c r="S17" s="30"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="30">
+        <v>1</v>
+      </c>
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
     </row>
-    <row r="18" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="43">
-        <v>27</v>
-      </c>
-      <c r="B18" s="43">
-        <v>59610025</v>
-      </c>
-      <c r="C18" s="44">
-        <v>42482</v>
-      </c>
-      <c r="D18" s="44">
-        <v>42482</v>
-      </c>
-      <c r="E18" s="45">
-        <v>42499.86005787037</v>
-      </c>
-      <c r="F18" s="43">
-        <v>3322</v>
-      </c>
-      <c r="G18" s="43">
-        <v>1667</v>
-      </c>
-      <c r="H18" s="43">
+    <row r="18" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="30">
+        <v>16</v>
+      </c>
+      <c r="B18" s="30">
+        <v>23</v>
+      </c>
+      <c r="C18" s="30">
+        <v>59518897</v>
+      </c>
+      <c r="D18" s="31">
+        <v>42478</v>
+      </c>
+      <c r="E18" s="31">
+        <v>42478</v>
+      </c>
+      <c r="F18" s="32">
+        <v>42499.146643518521</v>
+      </c>
+      <c r="G18" s="30">
+        <v>3461</v>
+      </c>
+      <c r="H18" s="30">
+        <v>1603</v>
+      </c>
+      <c r="I18" s="30">
         <v>0.69</v>
       </c>
-      <c r="I18" s="43">
-        <v>30.007999999999999</v>
-      </c>
-      <c r="J18" s="43">
-        <v>1</v>
-      </c>
-      <c r="K18" s="43">
-        <v>0</v>
-      </c>
-      <c r="L18" s="43">
-        <f>IF(R18=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M18" s="43">
-        <v>1</v>
-      </c>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43">
-        <f>O18-N18</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="46">
-        <f>P18/F18</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="43"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="43">
-        <v>0</v>
-      </c>
-      <c r="U18" s="2"/>
+      <c r="J18" s="30">
+        <v>30.082999999999998</v>
+      </c>
+      <c r="K18" s="30">
+        <v>1</v>
+      </c>
+      <c r="L18" s="30">
+        <v>1</v>
+      </c>
+      <c r="M18" s="30">
+        <f>IF(S18=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N18" s="30">
+        <v>1</v>
+      </c>
+      <c r="O18" s="30">
+        <v>0</v>
+      </c>
+      <c r="P18" s="30">
+        <v>882</v>
+      </c>
+      <c r="Q18" s="30">
+        <f>P18-O18</f>
+        <v>882</v>
+      </c>
+      <c r="R18" s="35">
+        <f>Q18/G18</f>
+        <v>0.25483964172204565</v>
+      </c>
+      <c r="S18" s="30"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="30">
+        <v>1</v>
+      </c>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="43">
-        <v>30</v>
-      </c>
-      <c r="B19" s="43">
-        <v>59631015</v>
-      </c>
-      <c r="C19" s="44">
-        <v>42483</v>
-      </c>
-      <c r="D19" s="44">
-        <v>42483</v>
-      </c>
-      <c r="E19" s="45">
-        <v>42499.904849537037</v>
-      </c>
-      <c r="F19" s="43">
-        <v>4923</v>
-      </c>
-      <c r="G19" s="43">
-        <v>1151</v>
-      </c>
-      <c r="H19" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="I19" s="43">
-        <v>22.315999999999999</v>
-      </c>
-      <c r="J19" s="43">
-        <v>1</v>
-      </c>
-      <c r="K19" s="43">
-        <v>0</v>
-      </c>
-      <c r="L19" s="43">
-        <f>IF(R19=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M19" s="43">
-        <v>1</v>
-      </c>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43">
-        <f>O19-N19</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="46">
-        <f>P19/F19</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="43"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="43">
-        <v>0</v>
-      </c>
-      <c r="U19" s="2"/>
+    <row r="19" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="30">
+        <v>17</v>
+      </c>
+      <c r="B19" s="30">
+        <v>22</v>
+      </c>
+      <c r="C19" s="30">
+        <v>59338059</v>
+      </c>
+      <c r="D19" s="31">
+        <v>42471</v>
+      </c>
+      <c r="E19" s="31">
+        <v>42471</v>
+      </c>
+      <c r="F19" s="32">
+        <v>42499.838784722226</v>
+      </c>
+      <c r="G19" s="30">
+        <v>3313</v>
+      </c>
+      <c r="H19" s="30">
+        <v>1665</v>
+      </c>
+      <c r="I19" s="30">
+        <v>0.69</v>
+      </c>
+      <c r="J19" s="30">
+        <v>29.922999999999998</v>
+      </c>
+      <c r="K19" s="30">
+        <v>1</v>
+      </c>
+      <c r="L19" s="30">
+        <v>1</v>
+      </c>
+      <c r="M19" s="30">
+        <f>IF(S19=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="30">
+        <v>1</v>
+      </c>
+      <c r="O19" s="30">
+        <v>0</v>
+      </c>
+      <c r="P19" s="30">
+        <v>790</v>
+      </c>
+      <c r="Q19" s="30">
+        <f>P19-O19</f>
+        <v>790</v>
+      </c>
+      <c r="R19" s="35">
+        <f>Q19/G19</f>
+        <v>0.23845457289465741</v>
+      </c>
+      <c r="S19" s="30"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="30">
+        <v>1</v>
+      </c>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="43">
-        <v>31</v>
-      </c>
-      <c r="B20" s="43">
-        <v>59652111</v>
-      </c>
-      <c r="C20" s="44">
-        <v>42484</v>
-      </c>
-      <c r="D20" s="44">
-        <v>42484</v>
-      </c>
-      <c r="E20" s="45">
-        <v>42499.196516203701</v>
-      </c>
-      <c r="F20" s="43">
-        <v>3185</v>
-      </c>
-      <c r="G20" s="43">
-        <v>1846</v>
-      </c>
-      <c r="H20" s="43">
-        <v>0.6</v>
-      </c>
-      <c r="I20" s="43">
-        <v>27.832999999999998</v>
-      </c>
-      <c r="J20" s="43">
-        <v>1</v>
-      </c>
-      <c r="K20" s="43">
-        <v>0</v>
-      </c>
-      <c r="L20" s="43">
-        <f>IF(R20=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M20" s="43">
-        <v>1</v>
-      </c>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43">
-        <f>O20-N20</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="46">
-        <f>P20/F20</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="43"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="43">
-        <v>0</v>
-      </c>
-      <c r="U20" s="2"/>
+    <row r="20" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="30">
+        <v>18</v>
+      </c>
+      <c r="B20" s="30">
+        <v>19</v>
+      </c>
+      <c r="C20" s="30">
+        <v>59110112</v>
+      </c>
+      <c r="D20" s="31">
+        <v>42464</v>
+      </c>
+      <c r="E20" s="31">
+        <v>42464</v>
+      </c>
+      <c r="F20" s="32">
+        <v>42499.947650462964</v>
+      </c>
+      <c r="G20" s="30">
+        <v>2960</v>
+      </c>
+      <c r="H20" s="30">
+        <v>1566</v>
+      </c>
+      <c r="I20" s="30">
+        <v>0.69</v>
+      </c>
+      <c r="J20" s="30">
+        <v>24.83</v>
+      </c>
+      <c r="K20" s="30">
+        <v>1</v>
+      </c>
+      <c r="L20" s="30">
+        <v>1</v>
+      </c>
+      <c r="M20" s="30">
+        <f>IF(S20=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N20" s="30">
+        <v>1</v>
+      </c>
+      <c r="O20" s="30">
+        <v>0</v>
+      </c>
+      <c r="P20" s="30">
+        <v>700</v>
+      </c>
+      <c r="Q20" s="30">
+        <f>P20-O20</f>
+        <v>700</v>
+      </c>
+      <c r="R20" s="35">
+        <f>Q20/G20</f>
+        <v>0.23648648648648649</v>
+      </c>
+      <c r="S20" s="30"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="30">
+        <v>1</v>
+      </c>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="43">
-        <v>32</v>
-      </c>
-      <c r="B21" s="43">
-        <v>59716202</v>
-      </c>
-      <c r="C21" s="44">
-        <v>42485</v>
-      </c>
-      <c r="D21" s="44">
-        <v>42485</v>
-      </c>
-      <c r="E21" s="45">
-        <v>42499.166678240741</v>
-      </c>
-      <c r="F21" s="43">
-        <v>2125</v>
-      </c>
-      <c r="G21" s="43">
-        <v>1260</v>
-      </c>
-      <c r="H21" s="43">
-        <v>0.96</v>
-      </c>
-      <c r="I21" s="43">
-        <v>20.236000000000001</v>
-      </c>
-      <c r="J21" s="43">
-        <v>1</v>
-      </c>
-      <c r="K21" s="43">
-        <v>0</v>
-      </c>
-      <c r="L21" s="43">
-        <f>IF(R21=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M21" s="43">
-        <v>1</v>
-      </c>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43">
-        <f>O21-N21</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="46">
-        <f>P21/F21</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="43"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="43">
-        <v>0</v>
-      </c>
-      <c r="U21" s="2"/>
+    <row r="21" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="30">
+        <v>19</v>
+      </c>
+      <c r="B21" s="30">
+        <v>35</v>
+      </c>
+      <c r="C21" s="30">
+        <v>59758091</v>
+      </c>
+      <c r="D21" s="31">
+        <v>42487</v>
+      </c>
+      <c r="E21" s="31">
+        <v>42487</v>
+      </c>
+      <c r="F21" s="32">
+        <v>42499.964108796295</v>
+      </c>
+      <c r="G21" s="30">
+        <v>3105</v>
+      </c>
+      <c r="H21" s="30">
+        <v>1702</v>
+      </c>
+      <c r="I21" s="30">
+        <v>0.72</v>
+      </c>
+      <c r="J21" s="30">
+        <v>30.181000000000001</v>
+      </c>
+      <c r="K21" s="30">
+        <v>1</v>
+      </c>
+      <c r="L21" s="30">
+        <v>1</v>
+      </c>
+      <c r="M21" s="30">
+        <f>IF(S21=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N21" s="30">
+        <v>1</v>
+      </c>
+      <c r="O21" s="30">
+        <v>210</v>
+      </c>
+      <c r="P21" s="30">
+        <v>925</v>
+      </c>
+      <c r="Q21" s="30">
+        <f>P21-O21</f>
+        <v>715</v>
+      </c>
+      <c r="R21" s="35">
+        <f>Q21/G21</f>
+        <v>0.23027375201288244</v>
+      </c>
+      <c r="S21" s="30"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="30">
+        <v>1</v>
+      </c>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="43">
-        <v>33</v>
-      </c>
-      <c r="B22" s="43">
-        <v>59716721</v>
-      </c>
-      <c r="C22" s="44">
-        <v>42485</v>
-      </c>
-      <c r="D22" s="44">
-        <v>42485</v>
-      </c>
-      <c r="E22" s="45">
-        <v>42499.592546296299</v>
-      </c>
-      <c r="F22" s="43">
-        <v>3138</v>
-      </c>
-      <c r="G22" s="43">
-        <v>1762</v>
-      </c>
-      <c r="H22" s="43">
-        <v>0.69</v>
-      </c>
-      <c r="I22" s="43">
-        <v>30.257000000000001</v>
-      </c>
-      <c r="J22" s="43">
-        <v>1</v>
-      </c>
-      <c r="K22" s="43">
-        <v>0</v>
-      </c>
-      <c r="L22" s="43">
-        <f>IF(R22=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M22" s="43">
-        <v>1</v>
-      </c>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43">
-        <f>O22-N22</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="46">
-        <f>P22/F22</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="43"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="43">
-        <v>0</v>
-      </c>
-      <c r="U22" s="2"/>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22" s="30">
+        <v>20</v>
+      </c>
+      <c r="B22" s="30">
+        <v>20</v>
+      </c>
+      <c r="C22" s="30">
+        <v>59153513</v>
+      </c>
+      <c r="D22" s="31">
+        <v>42467</v>
+      </c>
+      <c r="E22" s="31">
+        <v>42467</v>
+      </c>
+      <c r="F22" s="32">
+        <v>42499.561331018522</v>
+      </c>
+      <c r="G22" s="30">
+        <v>3165</v>
+      </c>
+      <c r="H22" s="30">
+        <v>1561</v>
+      </c>
+      <c r="I22" s="30">
+        <v>0.66</v>
+      </c>
+      <c r="J22" s="30">
+        <v>25.47</v>
+      </c>
+      <c r="K22" s="30">
+        <v>1</v>
+      </c>
+      <c r="L22" s="30">
+        <v>1</v>
+      </c>
+      <c r="M22" s="30">
+        <f>IF(S22=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N22" s="30">
+        <v>1</v>
+      </c>
+      <c r="O22" s="30">
+        <v>239</v>
+      </c>
+      <c r="P22" s="30">
+        <v>721</v>
+      </c>
+      <c r="Q22" s="30">
+        <f>P22-O22</f>
+        <v>482</v>
+      </c>
+      <c r="R22" s="35">
+        <f>Q22/G22</f>
+        <v>0.15229067930489731</v>
+      </c>
+      <c r="S22" s="30"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="30">
+        <v>1</v>
+      </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" s="43">
-        <v>36</v>
-      </c>
-      <c r="B23" s="43">
-        <v>59904812</v>
-      </c>
-      <c r="C23" s="44">
-        <v>42492</v>
-      </c>
-      <c r="D23" s="44">
-        <v>42492</v>
-      </c>
-      <c r="E23" s="45">
-        <v>42625.703680555554</v>
-      </c>
-      <c r="F23" s="43">
-        <v>2207</v>
-      </c>
-      <c r="G23" s="43">
-        <v>1334</v>
-      </c>
-      <c r="H23" s="43">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="I23" s="43">
-        <v>26.515999999999998</v>
-      </c>
-      <c r="J23" s="43">
-        <v>1</v>
-      </c>
-      <c r="K23" s="43">
-        <v>0</v>
-      </c>
-      <c r="L23" s="43">
-        <f>IF(R23=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M23" s="43">
-        <v>1</v>
-      </c>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43">
-        <f>O23-N23</f>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="46">
-        <f>P23/F23</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="43"/>
-      <c r="S23" s="47" t="s">
-        <v>576</v>
-      </c>
-      <c r="T23" s="43">
-        <v>0</v>
-      </c>
-      <c r="U23" s="2"/>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23" s="30">
+        <v>21</v>
+      </c>
+      <c r="B23" s="30">
+        <v>45</v>
+      </c>
+      <c r="C23" s="30">
+        <v>60889786</v>
+      </c>
+      <c r="D23" s="31">
+        <v>42525</v>
+      </c>
+      <c r="E23" s="31">
+        <v>42525</v>
+      </c>
+      <c r="F23" s="32">
+        <v>42625.986435185187</v>
+      </c>
+      <c r="G23" s="30">
+        <v>2833</v>
+      </c>
+      <c r="H23" s="30">
+        <v>1631</v>
+      </c>
+      <c r="I23" s="30">
+        <v>0.69</v>
+      </c>
+      <c r="J23" s="30">
+        <v>24.86</v>
+      </c>
+      <c r="K23" s="30">
+        <v>1</v>
+      </c>
+      <c r="L23" s="30">
+        <v>1</v>
+      </c>
+      <c r="M23" s="30">
+        <f>IF(S23=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N23" s="30">
+        <v>1</v>
+      </c>
+      <c r="O23" s="30">
+        <v>0</v>
+      </c>
+      <c r="P23" s="30">
+        <v>280</v>
+      </c>
+      <c r="Q23" s="30">
+        <f>P23-O23</f>
+        <v>280</v>
+      </c>
+      <c r="R23" s="35">
+        <f>Q23/G23</f>
+        <v>9.8835157077303212E-2</v>
+      </c>
+      <c r="S23" s="30"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="30">
+        <v>1</v>
+      </c>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24" s="43">
-        <v>41</v>
-      </c>
-      <c r="B24" s="43">
-        <v>60110664</v>
-      </c>
-      <c r="C24" s="44">
-        <v>42497</v>
-      </c>
-      <c r="D24" s="44">
-        <v>42497</v>
-      </c>
-      <c r="E24" s="45">
-        <v>42625.257708333331</v>
-      </c>
-      <c r="F24" s="43">
-        <v>1536</v>
-      </c>
-      <c r="G24" s="43">
-        <v>1349</v>
-      </c>
-      <c r="H24" s="43">
-        <v>1.5</v>
-      </c>
-      <c r="I24" s="43">
-        <v>24.445</v>
-      </c>
-      <c r="J24" s="43">
-        <v>1</v>
-      </c>
-      <c r="K24" s="43">
-        <v>0</v>
-      </c>
-      <c r="L24" s="43">
-        <f>IF(R24=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M24" s="43">
-        <v>1</v>
-      </c>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43">
-        <f>O24-N24</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="46">
-        <f>P24/F24</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="43"/>
-      <c r="S24" s="47" t="s">
-        <v>582</v>
-      </c>
-      <c r="T24" s="43">
-        <v>0</v>
-      </c>
-      <c r="U24" s="2"/>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24" s="30">
+        <v>22</v>
+      </c>
+      <c r="B24" s="30">
+        <v>25</v>
+      </c>
+      <c r="C24" s="30">
+        <v>59561666</v>
+      </c>
+      <c r="D24" s="31">
+        <v>42479</v>
+      </c>
+      <c r="E24" s="31">
+        <v>42479</v>
+      </c>
+      <c r="F24" s="32">
+        <v>42499.615057870367</v>
+      </c>
+      <c r="G24" s="30">
+        <v>3806</v>
+      </c>
+      <c r="H24" s="30">
+        <v>1342</v>
+      </c>
+      <c r="I24" s="30">
+        <v>0.59</v>
+      </c>
+      <c r="J24" s="30">
+        <v>24.009</v>
+      </c>
+      <c r="K24" s="30">
+        <v>1</v>
+      </c>
+      <c r="L24" s="30">
+        <v>1</v>
+      </c>
+      <c r="M24" s="30">
+        <f>IF(S24=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N24" s="30">
+        <v>1</v>
+      </c>
+      <c r="O24" s="30">
+        <v>3058</v>
+      </c>
+      <c r="P24" s="30">
+        <v>3059</v>
+      </c>
+      <c r="Q24" s="30">
+        <f>P24-O24</f>
+        <v>1</v>
+      </c>
+      <c r="R24" s="35">
+        <f>Q24/G24</f>
+        <v>2.6274303730951129E-4</v>
+      </c>
+      <c r="S24" s="30"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="30">
+        <v>1</v>
+      </c>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="43">
-        <v>44</v>
-      </c>
-      <c r="B25" s="43">
-        <v>60830164</v>
-      </c>
-      <c r="C25" s="44">
-        <v>42522</v>
-      </c>
-      <c r="D25" s="44">
-        <v>42522</v>
-      </c>
-      <c r="E25" s="45">
-        <v>42625.236504629633</v>
-      </c>
-      <c r="F25" s="43">
-        <v>3145</v>
-      </c>
-      <c r="G25" s="43">
-        <v>1441</v>
-      </c>
-      <c r="H25" s="43">
-        <v>0.69</v>
-      </c>
-      <c r="I25" s="43">
-        <v>24.61</v>
-      </c>
-      <c r="J25" s="43">
-        <v>1</v>
-      </c>
-      <c r="K25" s="43">
-        <v>0</v>
-      </c>
-      <c r="L25" s="43">
-        <f>IF(R25=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M25" s="43">
-        <v>1</v>
-      </c>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43">
-        <f>O25-N25</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="46">
-        <f>P25/F25</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="43"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="43">
-        <v>0</v>
-      </c>
-      <c r="U25" s="2"/>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A25" s="30">
+        <v>23</v>
+      </c>
+      <c r="B25" s="30">
+        <v>1</v>
+      </c>
+      <c r="C25" s="30">
+        <v>58380842</v>
+      </c>
+      <c r="D25" s="31">
+        <v>42442</v>
+      </c>
+      <c r="E25" s="31">
+        <v>42442</v>
+      </c>
+      <c r="F25" s="32">
+        <v>42471.291886574072</v>
+      </c>
+      <c r="G25" s="30">
+        <v>3588</v>
+      </c>
+      <c r="H25" s="30">
+        <v>1356</v>
+      </c>
+      <c r="I25" s="30">
+        <v>0.68</v>
+      </c>
+      <c r="J25" s="30">
+        <v>25.965</v>
+      </c>
+      <c r="K25" s="30">
+        <v>1</v>
+      </c>
+      <c r="L25" s="30">
+        <v>0</v>
+      </c>
+      <c r="M25" s="30">
+        <f>IF(S25=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N25" s="30">
+        <v>1</v>
+      </c>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30">
+        <f>P25-O25</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="35">
+        <f>Q25/G25</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="30"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="30">
+        <v>1</v>
+      </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="43">
-        <v>46</v>
-      </c>
-      <c r="B26" s="43">
-        <v>60889939</v>
-      </c>
-      <c r="C26" s="44">
-        <v>42526</v>
-      </c>
-      <c r="D26" s="44">
-        <v>42526</v>
-      </c>
-      <c r="E26" s="45">
-        <v>42625.059571759259</v>
-      </c>
-      <c r="F26" s="43">
-        <v>3434</v>
-      </c>
-      <c r="G26" s="43">
-        <v>1612</v>
-      </c>
-      <c r="H26" s="43">
-        <v>0.69</v>
-      </c>
-      <c r="I26" s="43">
-        <v>29.998999999999999</v>
-      </c>
-      <c r="J26" s="43">
-        <v>1</v>
-      </c>
-      <c r="K26" s="43">
-        <v>0</v>
-      </c>
-      <c r="L26" s="43">
-        <f>IF(R26=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M26" s="43">
-        <v>1</v>
-      </c>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43">
-        <f>O26-N26</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="46">
-        <f>P26/F26</f>
-        <v>0</v>
-      </c>
-      <c r="R26" s="43"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="43">
-        <v>0</v>
-      </c>
-      <c r="U26" s="2"/>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26" s="30">
+        <v>24</v>
+      </c>
+      <c r="B26" s="30">
+        <v>3</v>
+      </c>
+      <c r="C26" s="30">
+        <v>58380903</v>
+      </c>
+      <c r="D26" s="31">
+        <v>42442</v>
+      </c>
+      <c r="E26" s="31">
+        <v>42442</v>
+      </c>
+      <c r="F26" s="32">
+        <v>42471.336261574077</v>
+      </c>
+      <c r="G26" s="30">
+        <v>3804</v>
+      </c>
+      <c r="H26" s="30">
+        <v>1351</v>
+      </c>
+      <c r="I26" s="30">
+        <v>0.68</v>
+      </c>
+      <c r="J26" s="30">
+        <v>27.492999999999999</v>
+      </c>
+      <c r="K26" s="30">
+        <v>1</v>
+      </c>
+      <c r="L26" s="30">
+        <v>0</v>
+      </c>
+      <c r="M26" s="30">
+        <f>IF(S26=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N26" s="30">
+        <v>1</v>
+      </c>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30">
+        <f>P26-O26</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="35">
+        <f>Q26/G26</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="30"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="30">
+        <v>1</v>
+      </c>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="43">
-        <v>47</v>
-      </c>
-      <c r="B27" s="43">
-        <v>61040337</v>
-      </c>
-      <c r="C27" s="44">
-        <v>42530</v>
-      </c>
-      <c r="D27" s="44">
-        <v>42530</v>
-      </c>
-      <c r="E27" s="45">
-        <v>42625.307997685188</v>
-      </c>
-      <c r="F27" s="43">
-        <v>1628</v>
-      </c>
-      <c r="G27" s="43">
-        <v>1253</v>
-      </c>
-      <c r="H27" s="43">
-        <v>1.43</v>
-      </c>
-      <c r="I27" s="43">
-        <v>22.943000000000001</v>
-      </c>
-      <c r="J27" s="43">
-        <v>1</v>
-      </c>
-      <c r="K27" s="43">
-        <v>0</v>
-      </c>
-      <c r="L27" s="43">
-        <f>IF(R27=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M27" s="43">
-        <v>1</v>
-      </c>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43">
-        <f>O27-N27</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="46">
-        <f>P27/F27</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="43"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="43">
-        <v>0</v>
-      </c>
-      <c r="U27" s="2"/>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27" s="30">
+        <v>25</v>
+      </c>
+      <c r="B27" s="30">
+        <v>4</v>
+      </c>
+      <c r="C27" s="30">
+        <v>58431623</v>
+      </c>
+      <c r="D27" s="31">
+        <v>42442</v>
+      </c>
+      <c r="E27" s="31">
+        <v>42442</v>
+      </c>
+      <c r="F27" s="32">
+        <v>42471.876030092593</v>
+      </c>
+      <c r="G27" s="30">
+        <v>1262</v>
+      </c>
+      <c r="H27" s="30">
+        <v>1326</v>
+      </c>
+      <c r="I27" s="30">
+        <v>1.25</v>
+      </c>
+      <c r="J27" s="30">
+        <v>16.510999999999999</v>
+      </c>
+      <c r="K27" s="30">
+        <v>1</v>
+      </c>
+      <c r="L27" s="30">
+        <v>1</v>
+      </c>
+      <c r="M27" s="30">
+        <f>IF(S27=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N27" s="30">
+        <v>1</v>
+      </c>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30">
+        <f>P27-O27</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="35">
+        <f>Q27/G27</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="30"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="30">
+        <v>1</v>
+      </c>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28" s="43">
-        <v>49</v>
-      </c>
-      <c r="B28" s="43">
-        <v>61157228</v>
-      </c>
-      <c r="C28" s="44">
-        <v>42533</v>
-      </c>
-      <c r="D28" s="44">
-        <v>42533</v>
-      </c>
-      <c r="E28" s="45">
-        <v>42625.962083333332</v>
-      </c>
-      <c r="F28" s="43">
-        <v>3296</v>
-      </c>
-      <c r="G28" s="43">
-        <v>1666</v>
-      </c>
-      <c r="H28" s="43">
-        <v>0.69</v>
-      </c>
-      <c r="I28" s="43">
-        <v>29.58</v>
-      </c>
-      <c r="J28" s="43">
-        <v>1</v>
-      </c>
-      <c r="K28" s="43">
-        <v>0</v>
-      </c>
-      <c r="L28" s="43">
-        <f>IF(R28=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M28" s="43">
-        <v>1</v>
-      </c>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43">
-        <f>O28-N28</f>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="46">
-        <f>P28/F28</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="43"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="43">
-        <v>0</v>
-      </c>
-      <c r="U28" s="2"/>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28" s="30">
+        <v>26</v>
+      </c>
+      <c r="B28" s="30">
+        <v>5</v>
+      </c>
+      <c r="C28" s="30">
+        <v>58637524</v>
+      </c>
+      <c r="D28" s="31">
+        <v>42451</v>
+      </c>
+      <c r="E28" s="31">
+        <v>42451</v>
+      </c>
+      <c r="F28" s="32">
+        <v>42471.107314814813</v>
+      </c>
+      <c r="G28" s="30">
+        <v>1772</v>
+      </c>
+      <c r="H28" s="30">
+        <v>1350</v>
+      </c>
+      <c r="I28" s="30">
+        <v>1.25</v>
+      </c>
+      <c r="J28" s="30">
+        <v>23.481999999999999</v>
+      </c>
+      <c r="K28" s="30">
+        <v>1</v>
+      </c>
+      <c r="L28" s="30">
+        <v>0</v>
+      </c>
+      <c r="M28" s="30">
+        <f>IF(S28=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N28" s="30">
+        <v>1</v>
+      </c>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30">
+        <f>P28-O28</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="35">
+        <f>Q28/G28</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="30"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="30">
+        <v>1</v>
+      </c>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="43">
-        <v>52</v>
-      </c>
-      <c r="B29" s="43">
-        <v>61288829</v>
-      </c>
-      <c r="C29" s="44">
-        <v>42538</v>
-      </c>
-      <c r="D29" s="44">
-        <v>42538</v>
-      </c>
-      <c r="E29" s="45">
-        <v>42625.064571759256</v>
-      </c>
-      <c r="F29" s="43">
-        <v>4952</v>
-      </c>
-      <c r="G29" s="43">
-        <v>1261</v>
-      </c>
-      <c r="H29" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="I29" s="43">
-        <v>24.596</v>
-      </c>
-      <c r="J29" s="43">
-        <v>1</v>
-      </c>
-      <c r="K29" s="43">
-        <v>0</v>
-      </c>
-      <c r="L29" s="43">
-        <f>IF(R29=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M29" s="43">
-        <v>1</v>
-      </c>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43">
-        <f>O29-N29</f>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="46">
-        <f>P29/F29</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="43"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="43">
-        <v>0</v>
-      </c>
-      <c r="U29" s="2"/>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A29" s="30">
+        <v>27</v>
+      </c>
+      <c r="B29" s="30">
+        <v>6</v>
+      </c>
+      <c r="C29" s="30">
+        <v>58637555</v>
+      </c>
+      <c r="D29" s="31">
+        <v>42451</v>
+      </c>
+      <c r="E29" s="31">
+        <v>42451</v>
+      </c>
+      <c r="F29" s="32">
+        <v>42471.119050925925</v>
+      </c>
+      <c r="G29" s="30">
+        <v>1146</v>
+      </c>
+      <c r="H29" s="30">
+        <v>1304</v>
+      </c>
+      <c r="I29" s="30">
+        <v>2</v>
+      </c>
+      <c r="J29" s="30">
+        <v>23.504000000000001</v>
+      </c>
+      <c r="K29" s="30">
+        <v>1</v>
+      </c>
+      <c r="L29" s="30">
+        <v>0</v>
+      </c>
+      <c r="M29" s="30">
+        <f>IF(S29=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N29" s="30">
+        <v>1</v>
+      </c>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30">
+        <f>P29-O29</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="35">
+        <f>Q29/G29</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="30"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="30">
+        <v>1</v>
+      </c>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="43">
-        <v>55</v>
-      </c>
-      <c r="B30" s="43">
-        <v>61357901</v>
-      </c>
-      <c r="C30" s="44">
-        <v>42539</v>
-      </c>
-      <c r="D30" s="44">
-        <v>42539</v>
-      </c>
-      <c r="E30" s="45">
-        <v>42625.891840277778</v>
-      </c>
-      <c r="F30" s="43">
-        <v>776</v>
-      </c>
-      <c r="G30" s="43">
-        <v>1117</v>
-      </c>
-      <c r="H30" s="43">
-        <v>1.51</v>
-      </c>
-      <c r="I30" s="43">
-        <v>10.241</v>
-      </c>
-      <c r="J30" s="43">
-        <v>1</v>
-      </c>
-      <c r="K30" s="43">
-        <v>0</v>
-      </c>
-      <c r="L30" s="43">
-        <f>IF(R30=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M30" s="43">
-        <v>1</v>
-      </c>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43">
-        <f>O30-N30</f>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="46">
-        <f>P30/F30</f>
-        <v>0</v>
-      </c>
-      <c r="R30" s="43"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="43">
-        <v>0</v>
-      </c>
-      <c r="U30" s="2"/>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A30" s="30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="30">
+        <v>7</v>
+      </c>
+      <c r="C30" s="30">
+        <v>58714775</v>
+      </c>
+      <c r="D30" s="31">
+        <v>42453</v>
+      </c>
+      <c r="E30" s="31">
+        <v>42453</v>
+      </c>
+      <c r="F30" s="32">
+        <v>42471.180659722224</v>
+      </c>
+      <c r="G30" s="30">
+        <v>559</v>
+      </c>
+      <c r="H30" s="30">
+        <v>1302</v>
+      </c>
+      <c r="I30" s="30">
+        <v>1.99</v>
+      </c>
+      <c r="J30" s="30">
+        <v>11.406000000000001</v>
+      </c>
+      <c r="K30" s="30">
+        <v>1</v>
+      </c>
+      <c r="L30" s="30">
+        <v>0</v>
+      </c>
+      <c r="M30" s="30">
+        <f>IF(S30=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N30" s="30">
+        <v>1</v>
+      </c>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30">
+        <f>P30-O30</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="35">
+        <f>Q30/G30</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="30"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="30">
+        <v>1</v>
+      </c>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="43">
-        <v>56</v>
-      </c>
-      <c r="B31" s="43">
-        <v>61358230</v>
-      </c>
-      <c r="C31" s="44">
-        <v>42540</v>
-      </c>
-      <c r="D31" s="44">
-        <v>42540</v>
-      </c>
-      <c r="E31" s="45">
-        <v>42625.08662037037</v>
-      </c>
-      <c r="F31" s="43">
-        <v>1811</v>
-      </c>
-      <c r="G31" s="43">
-        <v>1539</v>
-      </c>
-      <c r="H31" s="43">
-        <v>1.25</v>
-      </c>
-      <c r="I31" s="43">
-        <v>27.337</v>
-      </c>
-      <c r="J31" s="43">
-        <v>1</v>
-      </c>
-      <c r="K31" s="43">
-        <v>0</v>
-      </c>
-      <c r="L31" s="43">
-        <f>IF(R31=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M31" s="43">
-        <v>1</v>
-      </c>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43">
-        <f>O31-N31</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="46">
-        <f>P31/F31</f>
-        <v>0</v>
-      </c>
-      <c r="R31" s="43"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="43">
-        <v>0</v>
-      </c>
-      <c r="U31" s="2"/>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A31" s="30">
+        <v>29</v>
+      </c>
+      <c r="B31" s="30">
+        <v>8</v>
+      </c>
+      <c r="C31" s="30">
+        <v>58752171</v>
+      </c>
+      <c r="D31" s="31">
+        <v>42453</v>
+      </c>
+      <c r="E31" s="31">
+        <v>42453</v>
+      </c>
+      <c r="F31" s="32">
+        <v>42471.18546296296</v>
+      </c>
+      <c r="G31" s="30">
+        <v>548</v>
+      </c>
+      <c r="H31" s="30">
+        <v>1302</v>
+      </c>
+      <c r="I31" s="30">
+        <v>1.99</v>
+      </c>
+      <c r="J31" s="30">
+        <v>11.192</v>
+      </c>
+      <c r="K31" s="30">
+        <v>1</v>
+      </c>
+      <c r="L31" s="30">
+        <v>0</v>
+      </c>
+      <c r="M31" s="30">
+        <f>IF(S31=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N31" s="30">
+        <v>1</v>
+      </c>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30">
+        <f>P31-O31</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="35">
+        <f>Q31/G31</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="30"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="30">
+        <v>1</v>
+      </c>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A32" s="43">
-        <v>57</v>
-      </c>
-      <c r="B32" s="43">
-        <v>61358285</v>
-      </c>
-      <c r="C32" s="44">
-        <v>42540</v>
-      </c>
-      <c r="D32" s="44">
-        <v>42540</v>
-      </c>
-      <c r="E32" s="45">
-        <v>42625.102916666663</v>
-      </c>
-      <c r="F32" s="43">
-        <v>1664</v>
-      </c>
-      <c r="G32" s="43">
-        <v>1503</v>
-      </c>
-      <c r="H32" s="43">
-        <v>1.42</v>
-      </c>
-      <c r="I32" s="43">
-        <v>27.873000000000001</v>
-      </c>
-      <c r="J32" s="43">
-        <v>1</v>
-      </c>
-      <c r="K32" s="43">
-        <v>0</v>
-      </c>
-      <c r="L32" s="43">
-        <f>IF(R32=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M32" s="43">
-        <v>1</v>
-      </c>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43">
-        <f>O32-N32</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="46">
-        <f>P32/F32</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="43"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="43">
-        <v>0</v>
-      </c>
-      <c r="U32" s="2"/>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32" s="30">
+        <v>30</v>
+      </c>
+      <c r="B32" s="30">
+        <v>9</v>
+      </c>
+      <c r="C32" s="30">
+        <v>58752669</v>
+      </c>
+      <c r="D32" s="31">
+        <v>42453</v>
+      </c>
+      <c r="E32" s="31">
+        <v>42453</v>
+      </c>
+      <c r="F32" s="32">
+        <v>42471.461608796293</v>
+      </c>
+      <c r="G32" s="30">
+        <v>3351</v>
+      </c>
+      <c r="H32" s="30">
+        <v>1357</v>
+      </c>
+      <c r="I32" s="30">
+        <v>0.68</v>
+      </c>
+      <c r="J32" s="30">
+        <v>24.216999999999999</v>
+      </c>
+      <c r="K32" s="30">
+        <v>1</v>
+      </c>
+      <c r="L32" s="30">
+        <v>0</v>
+      </c>
+      <c r="M32" s="30">
+        <f>IF(S32=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N32" s="30">
+        <v>1</v>
+      </c>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30">
+        <f>P32-O32</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="35">
+        <f>Q32/G32</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="30"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="30">
+        <v>1</v>
+      </c>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="43">
-        <v>58</v>
-      </c>
-      <c r="B33" s="43">
-        <v>61358292</v>
-      </c>
-      <c r="C33" s="44">
-        <v>42540</v>
-      </c>
-      <c r="D33" s="44">
-        <v>42540</v>
-      </c>
-      <c r="E33" s="45">
-        <v>42625.107662037037</v>
-      </c>
-      <c r="F33" s="43">
-        <v>1726</v>
-      </c>
-      <c r="G33" s="43">
-        <v>1503</v>
-      </c>
-      <c r="H33" s="43">
-        <v>1.42</v>
-      </c>
-      <c r="I33" s="43">
-        <v>28.922000000000001</v>
-      </c>
-      <c r="J33" s="43">
-        <v>1</v>
-      </c>
-      <c r="K33" s="43">
-        <v>0</v>
-      </c>
-      <c r="L33" s="43">
-        <f>IF(R33=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M33" s="43">
-        <v>1</v>
-      </c>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43">
-        <f>O33-N33</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="46">
-        <f>P33/F33</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="43"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="43">
-        <v>0</v>
-      </c>
-      <c r="U33" s="2"/>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A33" s="30">
+        <v>31</v>
+      </c>
+      <c r="B33" s="30">
+        <v>11</v>
+      </c>
+      <c r="C33" s="30">
+        <v>58752683</v>
+      </c>
+      <c r="D33" s="31">
+        <v>42453</v>
+      </c>
+      <c r="E33" s="31">
+        <v>42453</v>
+      </c>
+      <c r="F33" s="32">
+        <v>42471.47457175926</v>
+      </c>
+      <c r="G33" s="30">
+        <v>3817</v>
+      </c>
+      <c r="H33" s="30">
+        <v>1353</v>
+      </c>
+      <c r="I33" s="30">
+        <v>0.68</v>
+      </c>
+      <c r="J33" s="30">
+        <v>27.58</v>
+      </c>
+      <c r="K33" s="30">
+        <v>1</v>
+      </c>
+      <c r="L33" s="30">
+        <v>0</v>
+      </c>
+      <c r="M33" s="30">
+        <f>IF(S33=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N33" s="30">
+        <v>1</v>
+      </c>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30">
+        <f>P33-O33</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="35">
+        <f>Q33/G33</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="30"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="30">
+        <v>1</v>
+      </c>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="43">
-        <v>60</v>
-      </c>
-      <c r="B34" s="43">
-        <v>61442085</v>
-      </c>
-      <c r="C34" s="44">
-        <v>42543</v>
-      </c>
-      <c r="D34" s="44">
-        <v>42543</v>
-      </c>
-      <c r="E34" s="45">
-        <v>42625.071909722225</v>
-      </c>
-      <c r="F34" s="43">
-        <v>3194</v>
-      </c>
-      <c r="G34" s="43">
-        <v>1563</v>
-      </c>
-      <c r="H34" s="43">
-        <v>0.67</v>
-      </c>
-      <c r="I34" s="43">
-        <v>26.094999999999999</v>
-      </c>
-      <c r="J34" s="43">
-        <v>1</v>
-      </c>
-      <c r="K34" s="43">
-        <v>0</v>
-      </c>
-      <c r="L34" s="43">
-        <f>IF(R34=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M34" s="43">
-        <v>1</v>
-      </c>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43">
-        <f>O34-N34</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="46">
-        <f>P34/F34</f>
-        <v>0</v>
-      </c>
-      <c r="R34" s="43"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="43">
-        <v>0</v>
-      </c>
-      <c r="U34" s="2"/>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34" s="30">
+        <v>32</v>
+      </c>
+      <c r="B34" s="30">
+        <v>12</v>
+      </c>
+      <c r="C34" s="30">
+        <v>58771985</v>
+      </c>
+      <c r="D34" s="31">
+        <v>42454</v>
+      </c>
+      <c r="E34" s="31">
+        <v>42454</v>
+      </c>
+      <c r="F34" s="32">
+        <v>42471.074166666665</v>
+      </c>
+      <c r="G34" s="30">
+        <v>3993</v>
+      </c>
+      <c r="H34" s="30">
+        <v>1262</v>
+      </c>
+      <c r="I34" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="J34" s="30">
+        <v>23.785</v>
+      </c>
+      <c r="K34" s="30">
+        <v>1</v>
+      </c>
+      <c r="L34" s="30">
+        <v>0</v>
+      </c>
+      <c r="M34" s="30">
+        <f>IF(S34=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N34" s="30">
+        <v>1</v>
+      </c>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30">
+        <f>P34-O34</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="35">
+        <f>Q34/G34</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="30"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="30">
+        <v>1</v>
+      </c>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="30">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B35" s="30">
-        <v>58360839</v>
-      </c>
-      <c r="C35" s="31">
-        <v>42441</v>
+        <v>13</v>
+      </c>
+      <c r="C35" s="30">
+        <v>58772191</v>
       </c>
       <c r="D35" s="31">
-        <v>42441</v>
-      </c>
-      <c r="E35" s="32">
-        <v>42471.476689814815</v>
-      </c>
-      <c r="F35" s="30">
-        <v>2588</v>
+        <v>42454</v>
+      </c>
+      <c r="E35" s="31">
+        <v>42454</v>
+      </c>
+      <c r="F35" s="32">
+        <v>42471.172199074077</v>
       </c>
       <c r="G35" s="30">
-        <v>1579</v>
+        <v>2747</v>
       </c>
       <c r="H35" s="30">
-        <v>0.64</v>
+        <v>1012</v>
       </c>
       <c r="I35" s="30">
-        <v>20.646000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J35" s="30">
-        <v>1</v>
+        <v>19.664999999999999</v>
       </c>
       <c r="K35" s="30">
         <v>1</v>
       </c>
       <c r="L35" s="30">
-        <f>IF(R35=1,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="30">
+        <f>IF(S35=1,0,1)</f>
         <v>1</v>
       </c>
       <c r="N35" s="30">
-        <v>142</v>
-      </c>
-      <c r="O35" s="30">
-        <v>1092</v>
-      </c>
-      <c r="P35" s="30">
-        <f>O35-N35</f>
-        <v>950</v>
-      </c>
-      <c r="Q35" s="35">
-        <f>P35/F35</f>
-        <v>0.36707882534775887</v>
-      </c>
-      <c r="R35" s="30"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="30">
-        <v>1</v>
-      </c>
-      <c r="U35" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30">
+        <f>P35-O35</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="35">
+        <f>Q35/G35</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="30"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="30">
+        <v>1</v>
+      </c>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="30">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B36" s="30">
-        <v>58380859</v>
-      </c>
-      <c r="C36" s="31">
-        <v>42442</v>
+        <v>14</v>
+      </c>
+      <c r="C36" s="30">
+        <v>58943395</v>
       </c>
       <c r="D36" s="31">
-        <v>42442</v>
-      </c>
-      <c r="E36" s="32">
-        <v>42471.299074074072</v>
-      </c>
-      <c r="F36" s="30">
-        <v>3408</v>
+        <v>42460</v>
+      </c>
+      <c r="E36" s="31">
+        <v>42460</v>
+      </c>
+      <c r="F36" s="32">
+        <v>42471.61928240741</v>
       </c>
       <c r="G36" s="30">
-        <v>1354</v>
+        <v>3371</v>
       </c>
       <c r="H36" s="30">
-        <v>0.68</v>
+        <v>1175</v>
       </c>
       <c r="I36" s="30">
-        <v>24.620999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="J36" s="30">
-        <v>1</v>
+        <v>22.062999999999999</v>
       </c>
       <c r="K36" s="30">
         <v>1</v>
       </c>
       <c r="L36" s="30">
-        <f>IF(R36=1,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="30">
+        <f>IF(S36=1,0,1)</f>
         <v>1</v>
       </c>
       <c r="N36" s="30">
-        <v>606</v>
-      </c>
-      <c r="O36" s="30">
-        <v>1506</v>
-      </c>
-      <c r="P36" s="30">
-        <f>O36-N36</f>
-        <v>900</v>
-      </c>
-      <c r="Q36" s="35">
-        <f>P36/F36</f>
-        <v>0.2640845070422535</v>
-      </c>
-      <c r="R36" s="30"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="30">
-        <v>1</v>
-      </c>
-      <c r="U36" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30">
+        <f>P36-O36</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="35">
+        <f>Q36/G36</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="30"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="30">
+        <v>1</v>
+      </c>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="30">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B37" s="30">
-        <v>58431623</v>
-      </c>
-      <c r="C37" s="31">
-        <v>42442</v>
+        <v>15</v>
+      </c>
+      <c r="C37" s="30">
+        <v>59089665</v>
       </c>
       <c r="D37" s="31">
-        <v>42442</v>
-      </c>
-      <c r="E37" s="32">
-        <v>42471.876030092593</v>
-      </c>
-      <c r="F37" s="30">
-        <v>1262</v>
+        <v>42463</v>
+      </c>
+      <c r="E37" s="31">
+        <v>42463</v>
+      </c>
+      <c r="F37" s="32">
+        <v>42499.399444444447</v>
       </c>
       <c r="G37" s="30">
-        <v>1326</v>
+        <v>899</v>
       </c>
       <c r="H37" s="30">
-        <v>1.25</v>
+        <v>1081</v>
       </c>
       <c r="I37" s="30">
-        <v>16.510999999999999</v>
+        <v>2.46</v>
       </c>
       <c r="J37" s="30">
-        <v>1</v>
+        <v>18.792999999999999</v>
       </c>
       <c r="K37" s="30">
         <v>1</v>
       </c>
       <c r="L37" s="30">
-        <f>IF(R37=1,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" s="30">
-        <v>1</v>
-      </c>
-      <c r="N37" s="30"/>
+        <f>IF(S37=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N37" s="30">
+        <v>1</v>
+      </c>
       <c r="O37" s="30"/>
-      <c r="P37" s="30">
-        <f>O37-N37</f>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="35">
-        <f>P37/F37</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="30"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="30">
-        <v>1</v>
-      </c>
-      <c r="U37" s="2"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30">
+        <f>P37-O37</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="35">
+        <f>Q37/G37</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="30"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="30">
+        <v>1</v>
+      </c>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="30">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B38" s="30">
-        <v>59109361</v>
-      </c>
-      <c r="C38" s="31">
-        <v>42463</v>
+        <v>18</v>
+      </c>
+      <c r="C38" s="30">
+        <v>59110020</v>
       </c>
       <c r="D38" s="31">
-        <v>42463</v>
-      </c>
-      <c r="E38" s="32">
-        <v>42499.983055555553</v>
-      </c>
-      <c r="F38" s="30">
-        <v>2958</v>
+        <v>42464</v>
+      </c>
+      <c r="E38" s="31">
+        <v>42464</v>
+      </c>
+      <c r="F38" s="32">
+        <v>42499.884467592594</v>
       </c>
       <c r="G38" s="30">
-        <v>1689</v>
+        <v>3350</v>
       </c>
       <c r="H38" s="30">
+        <v>1601</v>
+      </c>
+      <c r="I38" s="30">
         <v>0.69</v>
       </c>
-      <c r="I38" s="30">
-        <v>26.87</v>
-      </c>
       <c r="J38" s="30">
-        <v>1</v>
+        <v>29.077999999999999</v>
       </c>
       <c r="K38" s="30">
         <v>1</v>
       </c>
       <c r="L38" s="30">
-        <f>IF(R38=1,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" s="30">
+        <f>IF(S38=1,0,1)</f>
         <v>1</v>
       </c>
       <c r="N38" s="30">
-        <v>0</v>
-      </c>
-      <c r="O38" s="30">
-        <v>800</v>
-      </c>
-      <c r="P38" s="30">
-        <f>O38-N38</f>
-        <v>800</v>
-      </c>
-      <c r="Q38" s="35">
-        <f>P38/F38</f>
-        <v>0.27045300878972278</v>
-      </c>
-      <c r="R38" s="30"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="30">
-        <v>1</v>
-      </c>
-      <c r="U38" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30">
+        <f>P38-O38</f>
+        <v>0</v>
+      </c>
+      <c r="R38" s="35">
+        <f>Q38/G38</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="30"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="30">
+        <v>1</v>
+      </c>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
     </row>
-    <row r="39" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="30">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B39" s="30">
-        <v>59109583</v>
-      </c>
-      <c r="C39" s="31">
-        <v>42464</v>
+        <v>21</v>
+      </c>
+      <c r="C39" s="30">
+        <v>59337379</v>
       </c>
       <c r="D39" s="31">
-        <v>42464</v>
-      </c>
-      <c r="E39" s="32">
-        <v>42499.141365740739</v>
-      </c>
-      <c r="F39" s="30">
-        <v>3300</v>
+        <v>42471</v>
+      </c>
+      <c r="E39" s="31">
+        <v>42471</v>
+      </c>
+      <c r="F39" s="32">
+        <v>42499.19803240741</v>
       </c>
       <c r="G39" s="30">
-        <v>1663</v>
+        <v>3695</v>
       </c>
       <c r="H39" s="30">
+        <v>1345</v>
+      </c>
+      <c r="I39" s="30">
+        <v>0.66</v>
+      </c>
+      <c r="J39" s="30">
+        <v>25.991</v>
+      </c>
+      <c r="K39" s="30">
+        <v>1</v>
+      </c>
+      <c r="L39" s="30">
+        <v>0</v>
+      </c>
+      <c r="M39" s="30">
+        <f>IF(S39=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N39" s="30">
+        <v>1</v>
+      </c>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30">
+        <f>P39-O39</f>
+        <v>0</v>
+      </c>
+      <c r="R39" s="35">
+        <f>Q39/G39</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="30"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="30">
+        <v>1</v>
+      </c>
+      <c r="V39" s="2"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+    </row>
+    <row r="40" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="30">
+        <v>38</v>
+      </c>
+      <c r="B40" s="30">
+        <v>26</v>
+      </c>
+      <c r="C40" s="30">
+        <v>59591962</v>
+      </c>
+      <c r="D40" s="31">
+        <v>42482</v>
+      </c>
+      <c r="E40" s="31">
+        <v>42482</v>
+      </c>
+      <c r="F40" s="32">
+        <v>42499.615347222221</v>
+      </c>
+      <c r="G40" s="30">
+        <v>2773</v>
+      </c>
+      <c r="H40" s="30">
+        <v>1802</v>
+      </c>
+      <c r="I40" s="30">
         <v>0.69</v>
       </c>
-      <c r="I39" s="30">
-        <v>29.53</v>
-      </c>
-      <c r="J39" s="30">
-        <v>1</v>
-      </c>
-      <c r="K39" s="30">
-        <v>1</v>
-      </c>
-      <c r="L39" s="30">
-        <f>IF(R39=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M39" s="30">
-        <v>1</v>
-      </c>
-      <c r="N39" s="30">
-        <v>600</v>
-      </c>
-      <c r="O39" s="30">
-        <v>1640</v>
-      </c>
-      <c r="P39" s="30">
-        <f>O39-N39</f>
-        <v>1040</v>
-      </c>
-      <c r="Q39" s="35">
-        <f>P39/F39</f>
-        <v>0.31515151515151513</v>
-      </c>
-      <c r="R39" s="30"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="30">
-        <v>1</v>
-      </c>
-      <c r="U39" s="2"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
+      <c r="J40" s="30">
+        <v>27.09</v>
+      </c>
+      <c r="K40" s="30">
+        <v>1</v>
+      </c>
+      <c r="L40" s="30">
+        <v>0</v>
+      </c>
+      <c r="M40" s="30">
+        <f>IF(S40=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N40" s="30">
+        <v>1</v>
+      </c>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30">
+        <f>P40-O40</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="35">
+        <f>Q40/G40</f>
+        <v>0</v>
+      </c>
+      <c r="S40" s="30"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="30">
+        <v>1</v>
+      </c>
+      <c r="V40" s="2"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
     </row>
-    <row r="40" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="30">
-        <v>19</v>
-      </c>
-      <c r="B40" s="30">
-        <v>59110112</v>
-      </c>
-      <c r="C40" s="31">
-        <v>42464</v>
-      </c>
-      <c r="D40" s="31">
-        <v>42464</v>
-      </c>
-      <c r="E40" s="32">
-        <v>42499.947650462964</v>
-      </c>
-      <c r="F40" s="30">
-        <v>2960</v>
-      </c>
-      <c r="G40" s="30">
-        <v>1566</v>
-      </c>
-      <c r="H40" s="30">
+    <row r="41" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="30">
+        <v>39</v>
+      </c>
+      <c r="B41" s="30">
+        <v>27</v>
+      </c>
+      <c r="C41" s="30">
+        <v>59610025</v>
+      </c>
+      <c r="D41" s="31">
+        <v>42482</v>
+      </c>
+      <c r="E41" s="31">
+        <v>42482</v>
+      </c>
+      <c r="F41" s="32">
+        <v>42499.86005787037</v>
+      </c>
+      <c r="G41" s="30">
+        <v>3322</v>
+      </c>
+      <c r="H41" s="30">
+        <v>1667</v>
+      </c>
+      <c r="I41" s="30">
         <v>0.69</v>
       </c>
-      <c r="I40" s="30">
-        <v>24.83</v>
-      </c>
-      <c r="J40" s="30">
-        <v>1</v>
-      </c>
-      <c r="K40" s="30">
-        <v>1</v>
-      </c>
-      <c r="L40" s="30">
-        <f>IF(R40=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M40" s="30">
-        <v>1</v>
-      </c>
-      <c r="N40" s="30">
-        <v>0</v>
-      </c>
-      <c r="O40" s="30">
-        <v>700</v>
-      </c>
-      <c r="P40" s="30">
-        <f>O40-N40</f>
-        <v>700</v>
-      </c>
-      <c r="Q40" s="35">
-        <f>P40/F40</f>
-        <v>0.23648648648648649</v>
-      </c>
-      <c r="R40" s="30"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="30">
-        <v>1</v>
-      </c>
-      <c r="U40" s="2"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
+      <c r="J41" s="30">
+        <v>30.007999999999999</v>
+      </c>
+      <c r="K41" s="30">
+        <v>1</v>
+      </c>
+      <c r="L41" s="30">
+        <v>0</v>
+      </c>
+      <c r="M41" s="30">
+        <f>IF(S41=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N41" s="30">
+        <v>1</v>
+      </c>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30">
+        <f>P41-O41</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="35">
+        <f>Q41/G41</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="30"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="30">
+        <v>1</v>
+      </c>
+      <c r="V41" s="2"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
     </row>
-    <row r="41" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30">
-        <v>20</v>
-      </c>
-      <c r="B41" s="30">
-        <v>59153513</v>
-      </c>
-      <c r="C41" s="31">
-        <v>42467</v>
-      </c>
-      <c r="D41" s="31">
-        <v>42467</v>
-      </c>
-      <c r="E41" s="32">
-        <v>42499.561331018522</v>
-      </c>
-      <c r="F41" s="30">
-        <v>3165</v>
-      </c>
-      <c r="G41" s="30">
-        <v>1561</v>
-      </c>
-      <c r="H41" s="30">
-        <v>0.66</v>
-      </c>
-      <c r="I41" s="30">
-        <v>25.47</v>
-      </c>
-      <c r="J41" s="30">
-        <v>1</v>
-      </c>
-      <c r="K41" s="30">
-        <v>1</v>
-      </c>
-      <c r="L41" s="30">
-        <f>IF(R41=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M41" s="30">
-        <v>1</v>
-      </c>
-      <c r="N41" s="30">
-        <v>239</v>
-      </c>
-      <c r="O41" s="30">
-        <v>721</v>
-      </c>
-      <c r="P41" s="30">
-        <f>O41-N41</f>
-        <v>482</v>
-      </c>
-      <c r="Q41" s="35">
-        <f>P41/F41</f>
-        <v>0.15229067930489731</v>
-      </c>
-      <c r="R41" s="30"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="30">
-        <v>1</v>
-      </c>
-      <c r="U41" s="2"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
+    <row r="42" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="30">
+        <v>40</v>
+      </c>
+      <c r="B42" s="30">
+        <v>30</v>
+      </c>
+      <c r="C42" s="30">
+        <v>59631015</v>
+      </c>
+      <c r="D42" s="31">
+        <v>42483</v>
+      </c>
+      <c r="E42" s="31">
+        <v>42483</v>
+      </c>
+      <c r="F42" s="32">
+        <v>42499.904849537037</v>
+      </c>
+      <c r="G42" s="30">
+        <v>4923</v>
+      </c>
+      <c r="H42" s="30">
+        <v>1151</v>
+      </c>
+      <c r="I42" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="J42" s="30">
+        <v>22.315999999999999</v>
+      </c>
+      <c r="K42" s="30">
+        <v>1</v>
+      </c>
+      <c r="L42" s="30">
+        <v>0</v>
+      </c>
+      <c r="M42" s="30">
+        <f>IF(S42=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N42" s="30">
+        <v>1</v>
+      </c>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30">
+        <f>P42-O42</f>
+        <v>0</v>
+      </c>
+      <c r="R42" s="35">
+        <f>Q42/G42</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="30"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="30">
+        <v>1</v>
+      </c>
+      <c r="V42" s="2"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
     </row>
-    <row r="42" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="30">
-        <v>22</v>
-      </c>
-      <c r="B42" s="30">
-        <v>59338059</v>
-      </c>
-      <c r="C42" s="31">
-        <v>42471</v>
-      </c>
-      <c r="D42" s="31">
-        <v>42471</v>
-      </c>
-      <c r="E42" s="32">
-        <v>42499.838784722226</v>
-      </c>
-      <c r="F42" s="30">
-        <v>3313</v>
-      </c>
-      <c r="G42" s="30">
-        <v>1665</v>
-      </c>
-      <c r="H42" s="30">
+    <row r="43" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="30">
+        <v>41</v>
+      </c>
+      <c r="B43" s="30">
+        <v>31</v>
+      </c>
+      <c r="C43" s="30">
+        <v>59652111</v>
+      </c>
+      <c r="D43" s="31">
+        <v>42484</v>
+      </c>
+      <c r="E43" s="31">
+        <v>42484</v>
+      </c>
+      <c r="F43" s="32">
+        <v>42499.196516203701</v>
+      </c>
+      <c r="G43" s="30">
+        <v>3185</v>
+      </c>
+      <c r="H43" s="30">
+        <v>1846</v>
+      </c>
+      <c r="I43" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="J43" s="30">
+        <v>27.832999999999998</v>
+      </c>
+      <c r="K43" s="30">
+        <v>1</v>
+      </c>
+      <c r="L43" s="30">
+        <v>0</v>
+      </c>
+      <c r="M43" s="30">
+        <f>IF(S43=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N43" s="30">
+        <v>1</v>
+      </c>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30">
+        <f>P43-O43</f>
+        <v>0</v>
+      </c>
+      <c r="R43" s="35">
+        <f>Q43/G43</f>
+        <v>0</v>
+      </c>
+      <c r="S43" s="30"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="30">
+        <v>1</v>
+      </c>
+      <c r="V43" s="2"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+    </row>
+    <row r="44" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="30">
+        <v>42</v>
+      </c>
+      <c r="B44" s="30">
+        <v>32</v>
+      </c>
+      <c r="C44" s="30">
+        <v>59716202</v>
+      </c>
+      <c r="D44" s="31">
+        <v>42485</v>
+      </c>
+      <c r="E44" s="31">
+        <v>42485</v>
+      </c>
+      <c r="F44" s="32">
+        <v>42499.166678240741</v>
+      </c>
+      <c r="G44" s="30">
+        <v>2125</v>
+      </c>
+      <c r="H44" s="30">
+        <v>1260</v>
+      </c>
+      <c r="I44" s="30">
+        <v>0.96</v>
+      </c>
+      <c r="J44" s="30">
+        <v>20.236000000000001</v>
+      </c>
+      <c r="K44" s="30">
+        <v>1</v>
+      </c>
+      <c r="L44" s="30">
+        <v>0</v>
+      </c>
+      <c r="M44" s="30">
+        <f>IF(S44=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N44" s="30">
+        <v>1</v>
+      </c>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30">
+        <f>P44-O44</f>
+        <v>0</v>
+      </c>
+      <c r="R44" s="35">
+        <f>Q44/G44</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="30"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="30">
+        <v>1</v>
+      </c>
+      <c r="V44" s="2"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+    </row>
+    <row r="45" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="30">
+        <v>43</v>
+      </c>
+      <c r="B45" s="30">
+        <v>33</v>
+      </c>
+      <c r="C45" s="30">
+        <v>59716721</v>
+      </c>
+      <c r="D45" s="31">
+        <v>42485</v>
+      </c>
+      <c r="E45" s="31">
+        <v>42485</v>
+      </c>
+      <c r="F45" s="32">
+        <v>42499.592546296299</v>
+      </c>
+      <c r="G45" s="30">
+        <v>3138</v>
+      </c>
+      <c r="H45" s="30">
+        <v>1762</v>
+      </c>
+      <c r="I45" s="30">
         <v>0.69</v>
       </c>
-      <c r="I42" s="30">
-        <v>29.922999999999998</v>
-      </c>
-      <c r="J42" s="30">
-        <v>1</v>
-      </c>
-      <c r="K42" s="30">
-        <v>1</v>
-      </c>
-      <c r="L42" s="30">
-        <f>IF(R42=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M42" s="30">
-        <v>1</v>
-      </c>
-      <c r="N42" s="30">
-        <v>0</v>
-      </c>
-      <c r="O42" s="30">
-        <v>790</v>
-      </c>
-      <c r="P42" s="30">
-        <f>O42-N42</f>
-        <v>790</v>
-      </c>
-      <c r="Q42" s="35">
-        <f>P42/F42</f>
-        <v>0.23845457289465741</v>
-      </c>
-      <c r="R42" s="30"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="30">
-        <v>1</v>
-      </c>
-      <c r="U42" s="2"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-    </row>
-    <row r="43" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="43">
-        <v>23</v>
-      </c>
-      <c r="B43" s="43">
-        <v>59518897</v>
-      </c>
-      <c r="C43" s="44">
-        <v>42478</v>
-      </c>
-      <c r="D43" s="44">
-        <v>42478</v>
-      </c>
-      <c r="E43" s="45">
-        <v>42499.146643518521</v>
-      </c>
-      <c r="F43" s="43">
-        <v>3461</v>
-      </c>
-      <c r="G43" s="43">
-        <v>1603</v>
-      </c>
-      <c r="H43" s="43">
-        <v>0.69</v>
-      </c>
-      <c r="I43" s="43">
-        <v>30.082999999999998</v>
-      </c>
-      <c r="J43" s="43">
-        <v>1</v>
-      </c>
-      <c r="K43" s="43">
-        <v>1</v>
-      </c>
-      <c r="L43" s="43">
-        <f>IF(R43=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M43" s="43">
-        <v>1</v>
-      </c>
-      <c r="N43" s="43">
-        <v>0</v>
-      </c>
-      <c r="O43" s="43">
-        <v>882</v>
-      </c>
-      <c r="P43" s="43">
-        <f>O43-N43</f>
-        <v>882</v>
-      </c>
-      <c r="Q43" s="46">
-        <f>P43/F43</f>
-        <v>0.25483964172204565</v>
-      </c>
-      <c r="R43" s="43"/>
-      <c r="S43" s="47"/>
-      <c r="T43" s="43">
-        <v>0</v>
-      </c>
-      <c r="U43" s="2"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-    </row>
-    <row r="44" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="43">
-        <v>24</v>
-      </c>
-      <c r="B44" s="43">
-        <v>59518934</v>
-      </c>
-      <c r="C44" s="44">
-        <v>42478</v>
-      </c>
-      <c r="D44" s="44">
-        <v>42478</v>
-      </c>
-      <c r="E44" s="45">
-        <v>42499.168043981481</v>
-      </c>
-      <c r="F44" s="43">
-        <v>3437</v>
-      </c>
-      <c r="G44" s="43">
-        <v>1600</v>
-      </c>
-      <c r="H44" s="43">
-        <v>0.69</v>
-      </c>
-      <c r="I44" s="43">
-        <v>29.808</v>
-      </c>
-      <c r="J44" s="43">
-        <v>1</v>
-      </c>
-      <c r="K44" s="43">
-        <v>1</v>
-      </c>
-      <c r="L44" s="43">
-        <f>IF(R44=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M44" s="43">
-        <v>1</v>
-      </c>
-      <c r="N44" s="43">
-        <v>37</v>
-      </c>
-      <c r="O44" s="43">
-        <v>1171</v>
-      </c>
-      <c r="P44" s="43">
-        <f>O44-N44</f>
-        <v>1134</v>
-      </c>
-      <c r="Q44" s="46">
-        <f>P44/F44</f>
-        <v>0.32993890020366601</v>
-      </c>
-      <c r="R44" s="43"/>
-      <c r="S44" s="47"/>
-      <c r="T44" s="43">
-        <v>0</v>
-      </c>
-      <c r="U44" s="2"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-    </row>
-    <row r="45" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="43">
-        <v>25</v>
-      </c>
-      <c r="B45" s="43">
-        <v>59561666</v>
-      </c>
-      <c r="C45" s="44">
-        <v>42479</v>
-      </c>
-      <c r="D45" s="44">
-        <v>42479</v>
-      </c>
-      <c r="E45" s="45">
-        <v>42499.615057870367</v>
-      </c>
-      <c r="F45" s="43">
-        <v>3806</v>
-      </c>
-      <c r="G45" s="43">
-        <v>1342</v>
-      </c>
-      <c r="H45" s="43">
-        <v>0.59</v>
-      </c>
-      <c r="I45" s="43">
-        <v>24.009</v>
-      </c>
-      <c r="J45" s="43">
-        <v>1</v>
-      </c>
-      <c r="K45" s="43">
-        <v>1</v>
-      </c>
-      <c r="L45" s="43">
-        <f>IF(R45=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M45" s="43">
-        <v>1</v>
-      </c>
-      <c r="N45" s="43">
-        <v>3058</v>
-      </c>
-      <c r="O45" s="43">
-        <v>3059</v>
-      </c>
-      <c r="P45" s="43">
-        <f>O45-N45</f>
-        <v>1</v>
-      </c>
-      <c r="Q45" s="46">
-        <f>P45/F45</f>
-        <v>2.6274303730951129E-4</v>
-      </c>
-      <c r="R45" s="43"/>
-      <c r="S45" s="47"/>
-      <c r="T45" s="43">
-        <v>0</v>
-      </c>
-      <c r="U45" s="2"/>
+      <c r="J45" s="30">
+        <v>30.257000000000001</v>
+      </c>
+      <c r="K45" s="30">
+        <v>1</v>
+      </c>
+      <c r="L45" s="30">
+        <v>0</v>
+      </c>
+      <c r="M45" s="30">
+        <f>IF(S45=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N45" s="30">
+        <v>1</v>
+      </c>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30">
+        <f>P45-O45</f>
+        <v>0</v>
+      </c>
+      <c r="R45" s="35">
+        <f>Q45/G45</f>
+        <v>0</v>
+      </c>
+      <c r="S45" s="30"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="30">
+        <v>1</v>
+      </c>
       <c r="V45" s="8"/>
       <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
     </row>
-    <row r="46" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="43">
-        <v>28</v>
-      </c>
-      <c r="B46" s="43">
-        <v>59610261</v>
-      </c>
-      <c r="C46" s="44">
-        <v>42483</v>
-      </c>
-      <c r="D46" s="44">
-        <v>42483</v>
-      </c>
-      <c r="E46" s="45">
-        <v>42499.007789351854</v>
-      </c>
-      <c r="F46" s="43">
-        <v>3368</v>
-      </c>
-      <c r="G46" s="43">
-        <v>1633</v>
-      </c>
-      <c r="H46" s="43">
-        <v>0.69</v>
-      </c>
-      <c r="I46" s="43">
-        <v>29.872</v>
-      </c>
-      <c r="J46" s="43">
-        <v>1</v>
-      </c>
-      <c r="K46" s="43">
-        <v>1</v>
-      </c>
-      <c r="L46" s="43">
-        <f>IF(R46=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M46" s="43">
-        <v>1</v>
-      </c>
-      <c r="N46" s="43">
-        <v>74</v>
-      </c>
-      <c r="O46" s="43">
-        <v>1273</v>
-      </c>
-      <c r="P46" s="43">
-        <f>O46-N46</f>
-        <v>1199</v>
-      </c>
-      <c r="Q46" s="46">
-        <f>P46/F46</f>
-        <v>0.35599762470308788</v>
-      </c>
-      <c r="R46" s="43"/>
-      <c r="S46" s="47"/>
-      <c r="T46" s="43">
-        <v>0</v>
-      </c>
-      <c r="U46" s="2"/>
+    <row r="46" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="30">
+        <v>44</v>
+      </c>
+      <c r="B46" s="30">
+        <v>36</v>
+      </c>
+      <c r="C46" s="30">
+        <v>59904812</v>
+      </c>
+      <c r="D46" s="31">
+        <v>42492</v>
+      </c>
+      <c r="E46" s="31">
+        <v>42492</v>
+      </c>
+      <c r="F46" s="32">
+        <v>42625.703680555554</v>
+      </c>
+      <c r="G46" s="30">
+        <v>2207</v>
+      </c>
+      <c r="H46" s="30">
+        <v>1334</v>
+      </c>
+      <c r="I46" s="30">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J46" s="30">
+        <v>26.515999999999998</v>
+      </c>
+      <c r="K46" s="30">
+        <v>1</v>
+      </c>
+      <c r="L46" s="30">
+        <v>0</v>
+      </c>
+      <c r="M46" s="30">
+        <f>IF(S46=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N46" s="30">
+        <v>1</v>
+      </c>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30">
+        <f>P46-O46</f>
+        <v>0</v>
+      </c>
+      <c r="R46" s="35">
+        <f>Q46/G46</f>
+        <v>0</v>
+      </c>
+      <c r="S46" s="30"/>
+      <c r="T46" s="34" t="s">
+        <v>576</v>
+      </c>
+      <c r="U46" s="30">
+        <v>1</v>
+      </c>
       <c r="V46" s="8"/>
       <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
     </row>
-    <row r="47" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="43">
-        <v>29</v>
-      </c>
-      <c r="B47" s="43">
-        <v>59630090</v>
-      </c>
-      <c r="C47" s="44">
-        <v>42483</v>
-      </c>
-      <c r="D47" s="44">
-        <v>42483</v>
-      </c>
-      <c r="E47" s="45">
-        <v>42499.399537037039</v>
-      </c>
-      <c r="F47" s="43">
-        <v>3108</v>
-      </c>
-      <c r="G47" s="43">
-        <v>1571</v>
-      </c>
-      <c r="H47" s="43">
-        <v>0.68</v>
-      </c>
-      <c r="I47" s="43">
-        <v>26.16</v>
-      </c>
-      <c r="J47" s="43">
-        <v>1</v>
-      </c>
-      <c r="K47" s="43">
-        <v>1</v>
-      </c>
-      <c r="L47" s="43">
-        <f>IF(R47=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M47" s="43">
-        <v>1</v>
-      </c>
-      <c r="N47" s="43">
-        <v>79</v>
-      </c>
-      <c r="O47" s="43">
-        <v>1098</v>
-      </c>
-      <c r="P47" s="43">
-        <f>O47-N47</f>
-        <v>1019</v>
-      </c>
-      <c r="Q47" s="46">
-        <f>P47/F47</f>
-        <v>0.32786357786357784</v>
-      </c>
-      <c r="R47" s="43"/>
-      <c r="S47" s="47"/>
-      <c r="T47" s="43">
-        <v>0</v>
-      </c>
-      <c r="U47" s="2"/>
+    <row r="47" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="30">
+        <v>45</v>
+      </c>
+      <c r="B47" s="30">
+        <v>41</v>
+      </c>
+      <c r="C47" s="30">
+        <v>60110664</v>
+      </c>
+      <c r="D47" s="31">
+        <v>42497</v>
+      </c>
+      <c r="E47" s="31">
+        <v>42497</v>
+      </c>
+      <c r="F47" s="32">
+        <v>42625.257708333331</v>
+      </c>
+      <c r="G47" s="30">
+        <v>1536</v>
+      </c>
+      <c r="H47" s="30">
+        <v>1349</v>
+      </c>
+      <c r="I47" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="J47" s="30">
+        <v>24.445</v>
+      </c>
+      <c r="K47" s="30">
+        <v>1</v>
+      </c>
+      <c r="L47" s="30">
+        <v>0</v>
+      </c>
+      <c r="M47" s="30">
+        <f>IF(S47=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N47" s="30">
+        <v>1</v>
+      </c>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30">
+        <f>P47-O47</f>
+        <v>0</v>
+      </c>
+      <c r="R47" s="35">
+        <f>Q47/G47</f>
+        <v>0</v>
+      </c>
+      <c r="S47" s="30"/>
+      <c r="T47" s="34" t="s">
+        <v>582</v>
+      </c>
+      <c r="U47" s="30">
+        <v>1</v>
+      </c>
       <c r="V47" s="8"/>
       <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
     </row>
-    <row r="48" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="43">
-        <v>34</v>
-      </c>
-      <c r="B48" s="43">
-        <v>59716936</v>
-      </c>
-      <c r="C48" s="44">
-        <v>42485</v>
-      </c>
-      <c r="D48" s="44">
-        <v>42485</v>
-      </c>
-      <c r="E48" s="45">
-        <v>42499.708749999998</v>
-      </c>
-      <c r="F48" s="43">
-        <v>3280</v>
-      </c>
-      <c r="G48" s="43">
-        <v>1690</v>
-      </c>
-      <c r="H48" s="43">
+    <row r="48" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="30">
+        <v>46</v>
+      </c>
+      <c r="B48" s="30">
+        <v>44</v>
+      </c>
+      <c r="C48" s="30">
+        <v>60830164</v>
+      </c>
+      <c r="D48" s="31">
+        <v>42522</v>
+      </c>
+      <c r="E48" s="31">
+        <v>42522</v>
+      </c>
+      <c r="F48" s="32">
+        <v>42625.236504629633</v>
+      </c>
+      <c r="G48" s="30">
+        <v>3145</v>
+      </c>
+      <c r="H48" s="30">
+        <v>1441</v>
+      </c>
+      <c r="I48" s="30">
         <v>0.69</v>
       </c>
-      <c r="I48" s="43">
-        <v>30.081</v>
-      </c>
-      <c r="J48" s="43">
-        <v>1</v>
-      </c>
-      <c r="K48" s="43">
-        <v>1</v>
-      </c>
-      <c r="L48" s="43">
-        <f>IF(R48=1,0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M48" s="43">
-        <v>1</v>
-      </c>
-      <c r="N48" s="43">
-        <v>129</v>
-      </c>
-      <c r="O48" s="43">
-        <v>131</v>
-      </c>
-      <c r="P48" s="43">
-        <f>O48-N48</f>
-        <v>2</v>
-      </c>
-      <c r="Q48" s="46">
-        <f>P48/F48</f>
-        <v>6.0975609756097561E-4</v>
-      </c>
-      <c r="R48" s="43">
-        <v>1</v>
-      </c>
-      <c r="S48" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="T48" s="43">
-        <v>0</v>
-      </c>
-      <c r="U48" s="2"/>
+      <c r="J48" s="30">
+        <v>24.61</v>
+      </c>
+      <c r="K48" s="30">
+        <v>1</v>
+      </c>
+      <c r="L48" s="30">
+        <v>0</v>
+      </c>
+      <c r="M48" s="30">
+        <f>IF(S48=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N48" s="30">
+        <v>1</v>
+      </c>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30">
+        <f>P48-O48</f>
+        <v>0</v>
+      </c>
+      <c r="R48" s="35">
+        <f>Q48/G48</f>
+        <v>0</v>
+      </c>
+      <c r="S48" s="30"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="30">
+        <v>1</v>
+      </c>
       <c r="V48" s="8"/>
       <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
     </row>
-    <row r="49" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="43">
-        <v>35</v>
-      </c>
-      <c r="B49" s="43">
-        <v>59758091</v>
-      </c>
-      <c r="C49" s="44">
-        <v>42487</v>
-      </c>
-      <c r="D49" s="44">
-        <v>42487</v>
-      </c>
-      <c r="E49" s="45">
-        <v>42499.964108796295</v>
-      </c>
-      <c r="F49" s="43">
-        <v>3105</v>
-      </c>
-      <c r="G49" s="43">
-        <v>1702</v>
-      </c>
-      <c r="H49" s="43">
-        <v>0.72</v>
-      </c>
-      <c r="I49" s="43">
-        <v>30.181000000000001</v>
-      </c>
-      <c r="J49" s="43">
-        <v>1</v>
-      </c>
-      <c r="K49" s="43">
-        <v>1</v>
-      </c>
-      <c r="L49" s="43">
-        <f>IF(R49=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M49" s="43">
-        <v>1</v>
-      </c>
-      <c r="N49" s="43">
-        <v>210</v>
-      </c>
-      <c r="O49" s="43">
-        <v>925</v>
-      </c>
-      <c r="P49" s="43">
-        <f>O49-N49</f>
-        <v>715</v>
-      </c>
-      <c r="Q49" s="46">
-        <f>P49/F49</f>
-        <v>0.23027375201288244</v>
-      </c>
-      <c r="R49" s="43"/>
-      <c r="S49" s="47"/>
-      <c r="T49" s="43">
-        <v>0</v>
-      </c>
-      <c r="U49" s="2"/>
+    <row r="49" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="30">
+        <v>47</v>
+      </c>
+      <c r="B49" s="30">
+        <v>46</v>
+      </c>
+      <c r="C49" s="30">
+        <v>60889939</v>
+      </c>
+      <c r="D49" s="31">
+        <v>42526</v>
+      </c>
+      <c r="E49" s="31">
+        <v>42526</v>
+      </c>
+      <c r="F49" s="32">
+        <v>42625.059571759259</v>
+      </c>
+      <c r="G49" s="30">
+        <v>3434</v>
+      </c>
+      <c r="H49" s="30">
+        <v>1612</v>
+      </c>
+      <c r="I49" s="30">
+        <v>0.69</v>
+      </c>
+      <c r="J49" s="30">
+        <v>29.998999999999999</v>
+      </c>
+      <c r="K49" s="30">
+        <v>1</v>
+      </c>
+      <c r="L49" s="30">
+        <v>0</v>
+      </c>
+      <c r="M49" s="30">
+        <f>IF(S49=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N49" s="30">
+        <v>1</v>
+      </c>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30">
+        <f>P49-O49</f>
+        <v>0</v>
+      </c>
+      <c r="R49" s="35">
+        <f>Q49/G49</f>
+        <v>0</v>
+      </c>
+      <c r="S49" s="30"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="30">
+        <v>1</v>
+      </c>
       <c r="V49" s="8"/>
       <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
     </row>
-    <row r="50" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="43">
-        <v>37</v>
-      </c>
-      <c r="B50" s="43">
-        <v>59981981</v>
-      </c>
-      <c r="C50" s="44">
-        <v>42494</v>
-      </c>
-      <c r="D50" s="44">
-        <v>42494</v>
-      </c>
-      <c r="E50" s="45">
-        <v>42625.284930555557</v>
-      </c>
-      <c r="F50" s="43">
-        <v>3210</v>
-      </c>
-      <c r="G50" s="43">
-        <v>1667</v>
-      </c>
-      <c r="H50" s="43">
+    <row r="50" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="30">
+        <v>48</v>
+      </c>
+      <c r="B50" s="30">
+        <v>47</v>
+      </c>
+      <c r="C50" s="30">
+        <v>61040337</v>
+      </c>
+      <c r="D50" s="31">
+        <v>42530</v>
+      </c>
+      <c r="E50" s="31">
+        <v>42530</v>
+      </c>
+      <c r="F50" s="32">
+        <v>42625.307997685188</v>
+      </c>
+      <c r="G50" s="30">
+        <v>1628</v>
+      </c>
+      <c r="H50" s="30">
+        <v>1253</v>
+      </c>
+      <c r="I50" s="30">
+        <v>1.43</v>
+      </c>
+      <c r="J50" s="30">
+        <v>22.943000000000001</v>
+      </c>
+      <c r="K50" s="30">
+        <v>1</v>
+      </c>
+      <c r="L50" s="30">
+        <v>0</v>
+      </c>
+      <c r="M50" s="30">
+        <f>IF(S50=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N50" s="30">
+        <v>1</v>
+      </c>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30">
+        <f>P50-O50</f>
+        <v>0</v>
+      </c>
+      <c r="R50" s="35">
+        <f>Q50/G50</f>
+        <v>0</v>
+      </c>
+      <c r="S50" s="30"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="30">
+        <v>1</v>
+      </c>
+      <c r="V50" s="2"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+    </row>
+    <row r="51" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="30">
+        <v>49</v>
+      </c>
+      <c r="B51" s="30">
+        <v>49</v>
+      </c>
+      <c r="C51" s="30">
+        <v>61157228</v>
+      </c>
+      <c r="D51" s="31">
+        <v>42533</v>
+      </c>
+      <c r="E51" s="31">
+        <v>42533</v>
+      </c>
+      <c r="F51" s="32">
+        <v>42625.962083333332</v>
+      </c>
+      <c r="G51" s="30">
+        <v>3296</v>
+      </c>
+      <c r="H51" s="30">
+        <v>1666</v>
+      </c>
+      <c r="I51" s="30">
         <v>0.69</v>
       </c>
-      <c r="I50" s="43">
-        <v>29.027999999999999</v>
-      </c>
-      <c r="J50" s="43">
-        <v>1</v>
-      </c>
-      <c r="K50" s="43">
-        <v>1</v>
-      </c>
-      <c r="L50" s="43">
-        <f>IF(R50=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M50" s="43">
-        <v>1</v>
-      </c>
-      <c r="N50" s="43">
-        <v>0</v>
-      </c>
-      <c r="O50" s="43">
-        <v>840</v>
-      </c>
-      <c r="P50" s="43">
-        <f>O50-N50</f>
-        <v>840</v>
-      </c>
-      <c r="Q50" s="46">
-        <f>P50/F50</f>
-        <v>0.26168224299065418</v>
-      </c>
-      <c r="R50" s="43"/>
-      <c r="S50" s="47"/>
-      <c r="T50" s="43">
-        <v>0</v>
-      </c>
-      <c r="U50" s="2"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="8"/>
+      <c r="J51" s="30">
+        <v>29.58</v>
+      </c>
+      <c r="K51" s="30">
+        <v>1</v>
+      </c>
+      <c r="L51" s="30">
+        <v>0</v>
+      </c>
+      <c r="M51" s="30">
+        <f>IF(S51=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N51" s="30">
+        <v>1</v>
+      </c>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30">
+        <f>P51-O51</f>
+        <v>0</v>
+      </c>
+      <c r="R51" s="35">
+        <f>Q51/G51</f>
+        <v>0</v>
+      </c>
+      <c r="S51" s="30"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="30">
+        <v>1</v>
+      </c>
+      <c r="V51" s="2"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
     </row>
-    <row r="51" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="43">
-        <v>38</v>
-      </c>
-      <c r="B51" s="43">
-        <v>60011286</v>
-      </c>
-      <c r="C51" s="44">
-        <v>42495</v>
-      </c>
-      <c r="D51" s="44">
-        <v>42495</v>
-      </c>
-      <c r="E51" s="45">
-        <v>42625.086851851855</v>
-      </c>
-      <c r="F51" s="43">
-        <v>3057</v>
-      </c>
-      <c r="G51" s="43">
-        <v>1626</v>
-      </c>
-      <c r="H51" s="43">
-        <v>0.77</v>
-      </c>
-      <c r="I51" s="43">
-        <v>29.85</v>
-      </c>
-      <c r="J51" s="43">
-        <v>1</v>
-      </c>
-      <c r="K51" s="43">
-        <v>1</v>
-      </c>
-      <c r="L51" s="43">
-        <f>IF(R51=1,0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M51" s="43">
-        <v>1</v>
-      </c>
-      <c r="N51" s="43">
-        <v>442</v>
-      </c>
-      <c r="O51" s="43">
-        <v>992</v>
-      </c>
-      <c r="P51" s="43">
-        <f>O51-N51</f>
-        <v>550</v>
-      </c>
-      <c r="Q51" s="46">
-        <f>P51/F51</f>
-        <v>0.1799149492966961</v>
-      </c>
-      <c r="R51" s="43">
-        <v>1</v>
-      </c>
-      <c r="S51" s="47" t="s">
-        <v>705</v>
-      </c>
-      <c r="T51" s="43">
-        <v>0</v>
-      </c>
-      <c r="U51" s="2"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="8"/>
+    <row r="52" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="30">
+        <v>50</v>
+      </c>
+      <c r="B52" s="30">
+        <v>52</v>
+      </c>
+      <c r="C52" s="30">
+        <v>61288829</v>
+      </c>
+      <c r="D52" s="31">
+        <v>42538</v>
+      </c>
+      <c r="E52" s="31">
+        <v>42538</v>
+      </c>
+      <c r="F52" s="32">
+        <v>42625.064571759256</v>
+      </c>
+      <c r="G52" s="30">
+        <v>4952</v>
+      </c>
+      <c r="H52" s="30">
+        <v>1261</v>
+      </c>
+      <c r="I52" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="J52" s="30">
+        <v>24.596</v>
+      </c>
+      <c r="K52" s="30">
+        <v>1</v>
+      </c>
+      <c r="L52" s="30">
+        <v>0</v>
+      </c>
+      <c r="M52" s="30">
+        <f>IF(S52=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N52" s="30">
+        <v>1</v>
+      </c>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30">
+        <f>P52-O52</f>
+        <v>0</v>
+      </c>
+      <c r="R52" s="35">
+        <f>Q52/G52</f>
+        <v>0</v>
+      </c>
+      <c r="S52" s="30"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="30">
+        <v>1</v>
+      </c>
+      <c r="V52" s="2"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
     </row>
-    <row r="52" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="43">
-        <v>39</v>
-      </c>
-      <c r="B52" s="43">
-        <v>60011835</v>
-      </c>
-      <c r="C52" s="44">
-        <v>42495</v>
-      </c>
-      <c r="D52" s="44">
-        <v>42495</v>
-      </c>
-      <c r="E52" s="45">
-        <v>42625.498807870368</v>
-      </c>
-      <c r="F52" s="43">
-        <v>3186</v>
-      </c>
-      <c r="G52" s="43">
-        <v>1557</v>
-      </c>
-      <c r="H52" s="43">
-        <v>0.66</v>
-      </c>
-      <c r="I52" s="43">
-        <v>25.827999999999999</v>
-      </c>
-      <c r="J52" s="43">
-        <v>1</v>
-      </c>
-      <c r="K52" s="43">
-        <v>1</v>
-      </c>
-      <c r="L52" s="43">
-        <f>IF(R52=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M52" s="43">
-        <v>1</v>
-      </c>
-      <c r="N52" s="43">
-        <v>0</v>
-      </c>
-      <c r="O52" s="43">
-        <v>1500</v>
-      </c>
-      <c r="P52" s="43">
-        <f>O52-N52</f>
-        <v>1500</v>
-      </c>
-      <c r="Q52" s="46">
-        <f>P52/F52</f>
-        <v>0.47080979284369112</v>
-      </c>
-      <c r="R52" s="43"/>
-      <c r="S52" s="47"/>
-      <c r="T52" s="43">
-        <v>0</v>
-      </c>
-      <c r="U52" s="2"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="8"/>
+    <row r="53" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="30">
+        <v>51</v>
+      </c>
+      <c r="B53" s="30">
+        <v>55</v>
+      </c>
+      <c r="C53" s="30">
+        <v>61357901</v>
+      </c>
+      <c r="D53" s="31">
+        <v>42539</v>
+      </c>
+      <c r="E53" s="31">
+        <v>42539</v>
+      </c>
+      <c r="F53" s="32">
+        <v>42625.891840277778</v>
+      </c>
+      <c r="G53" s="30">
+        <v>776</v>
+      </c>
+      <c r="H53" s="30">
+        <v>1117</v>
+      </c>
+      <c r="I53" s="30">
+        <v>1.51</v>
+      </c>
+      <c r="J53" s="30">
+        <v>10.241</v>
+      </c>
+      <c r="K53" s="30">
+        <v>1</v>
+      </c>
+      <c r="L53" s="30">
+        <v>0</v>
+      </c>
+      <c r="M53" s="30">
+        <f>IF(S53=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N53" s="30">
+        <v>1</v>
+      </c>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30">
+        <f>P53-O53</f>
+        <v>0</v>
+      </c>
+      <c r="R53" s="35">
+        <f>Q53/G53</f>
+        <v>0</v>
+      </c>
+      <c r="S53" s="30"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="30">
+        <v>1</v>
+      </c>
+      <c r="V53" s="2"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
     </row>
-    <row r="53" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="43">
-        <v>40</v>
-      </c>
-      <c r="B53" s="43">
-        <v>60044844</v>
-      </c>
-      <c r="C53" s="44">
-        <v>42496</v>
-      </c>
-      <c r="D53" s="44">
-        <v>42496</v>
-      </c>
-      <c r="E53" s="45">
-        <v>42625.689282407409</v>
-      </c>
-      <c r="F53" s="43">
-        <v>3297</v>
-      </c>
-      <c r="G53" s="43">
-        <v>1665</v>
-      </c>
-      <c r="H53" s="43">
-        <v>0.69</v>
-      </c>
-      <c r="I53" s="43">
-        <v>29.885000000000002</v>
-      </c>
-      <c r="J53" s="43">
-        <v>1</v>
-      </c>
-      <c r="K53" s="43">
-        <v>1</v>
-      </c>
-      <c r="L53" s="43">
-        <f>IF(R53=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M53" s="43">
-        <v>1</v>
-      </c>
-      <c r="N53" s="43">
-        <v>0</v>
-      </c>
-      <c r="O53" s="43">
-        <v>982</v>
-      </c>
-      <c r="P53" s="43">
-        <f>O53-N53</f>
-        <v>982</v>
-      </c>
-      <c r="Q53" s="46">
-        <f>P53/F53</f>
-        <v>0.29784652714589022</v>
-      </c>
-      <c r="R53" s="43"/>
-      <c r="S53" s="47"/>
-      <c r="T53" s="43">
-        <v>0</v>
-      </c>
-      <c r="U53" s="2"/>
-      <c r="V53" s="8"/>
-      <c r="W53" s="8"/>
+    <row r="54" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="30">
+        <v>52</v>
+      </c>
+      <c r="B54" s="30">
+        <v>56</v>
+      </c>
+      <c r="C54" s="30">
+        <v>61358230</v>
+      </c>
+      <c r="D54" s="31">
+        <v>42540</v>
+      </c>
+      <c r="E54" s="31">
+        <v>42540</v>
+      </c>
+      <c r="F54" s="32">
+        <v>42625.08662037037</v>
+      </c>
+      <c r="G54" s="30">
+        <v>1811</v>
+      </c>
+      <c r="H54" s="30">
+        <v>1539</v>
+      </c>
+      <c r="I54" s="30">
+        <v>1.25</v>
+      </c>
+      <c r="J54" s="30">
+        <v>27.337</v>
+      </c>
+      <c r="K54" s="30">
+        <v>1</v>
+      </c>
+      <c r="L54" s="30">
+        <v>0</v>
+      </c>
+      <c r="M54" s="30">
+        <f>IF(S54=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N54" s="30">
+        <v>1</v>
+      </c>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30">
+        <f>P54-O54</f>
+        <v>0</v>
+      </c>
+      <c r="R54" s="35">
+        <f>Q54/G54</f>
+        <v>0</v>
+      </c>
+      <c r="S54" s="30"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="30">
+        <v>1</v>
+      </c>
+      <c r="V54" s="2"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
     </row>
-    <row r="54" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="43">
-        <v>42</v>
-      </c>
-      <c r="B54" s="43">
-        <v>60179906</v>
-      </c>
-      <c r="C54" s="44">
-        <v>42501</v>
-      </c>
-      <c r="D54" s="44">
-        <v>42501</v>
-      </c>
-      <c r="E54" s="45">
-        <v>42625.539120370369</v>
-      </c>
-      <c r="F54" s="43">
-        <v>3226</v>
-      </c>
-      <c r="G54" s="43">
-        <v>1846</v>
-      </c>
-      <c r="H54" s="43">
-        <v>0.6</v>
-      </c>
-      <c r="I54" s="43">
-        <v>28.061</v>
-      </c>
-      <c r="J54" s="43">
-        <v>1</v>
-      </c>
-      <c r="K54" s="43">
-        <v>1</v>
-      </c>
-      <c r="L54" s="43">
-        <f>IF(R54=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M54" s="43">
-        <v>1</v>
-      </c>
-      <c r="N54" s="43">
-        <v>100</v>
-      </c>
-      <c r="O54" s="43">
-        <v>1506</v>
-      </c>
-      <c r="P54" s="43">
-        <f>O54-N54</f>
-        <v>1406</v>
-      </c>
-      <c r="Q54" s="46">
-        <f>P54/F54</f>
-        <v>0.43583384996900187</v>
-      </c>
-      <c r="R54" s="43"/>
-      <c r="S54" s="47"/>
-      <c r="T54" s="43">
-        <v>0</v>
-      </c>
-      <c r="U54" s="2"/>
-      <c r="V54" s="8"/>
-      <c r="W54" s="8"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A55" s="43">
-        <v>43</v>
-      </c>
-      <c r="B55" s="43">
-        <v>60674005</v>
-      </c>
-      <c r="C55" s="44">
-        <v>42518</v>
-      </c>
-      <c r="D55" s="44">
-        <v>42518</v>
-      </c>
-      <c r="E55" s="45">
-        <v>42625.145196759258</v>
-      </c>
-      <c r="F55" s="43">
-        <v>3306</v>
-      </c>
-      <c r="G55" s="43">
-        <v>1662</v>
-      </c>
-      <c r="H55" s="43">
-        <v>0.69</v>
-      </c>
-      <c r="I55" s="43">
-        <v>29.51</v>
-      </c>
-      <c r="J55" s="43">
-        <v>1</v>
-      </c>
-      <c r="K55" s="43">
-        <v>1</v>
-      </c>
-      <c r="L55" s="43">
-        <f>IF(R55=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M55" s="43">
-        <v>1</v>
-      </c>
-      <c r="N55" s="43">
-        <v>0</v>
-      </c>
-      <c r="O55" s="43">
-        <v>1910</v>
-      </c>
-      <c r="P55" s="43">
-        <f>O55-N55</f>
-        <v>1910</v>
-      </c>
-      <c r="Q55" s="46">
-        <f>P55/F55</f>
-        <v>0.57773744706594077</v>
-      </c>
-      <c r="R55" s="43"/>
-      <c r="S55" s="47"/>
-      <c r="T55" s="43">
-        <v>0</v>
-      </c>
-      <c r="U55" s="2"/>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A55" s="30">
+        <v>53</v>
+      </c>
+      <c r="B55" s="30">
+        <v>57</v>
+      </c>
+      <c r="C55" s="30">
+        <v>61358285</v>
+      </c>
+      <c r="D55" s="31">
+        <v>42540</v>
+      </c>
+      <c r="E55" s="31">
+        <v>42540</v>
+      </c>
+      <c r="F55" s="32">
+        <v>42625.102916666663</v>
+      </c>
+      <c r="G55" s="30">
+        <v>1664</v>
+      </c>
+      <c r="H55" s="30">
+        <v>1503</v>
+      </c>
+      <c r="I55" s="30">
+        <v>1.42</v>
+      </c>
+      <c r="J55" s="30">
+        <v>27.873000000000001</v>
+      </c>
+      <c r="K55" s="30">
+        <v>1</v>
+      </c>
+      <c r="L55" s="30">
+        <v>0</v>
+      </c>
+      <c r="M55" s="30">
+        <f>IF(S55=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N55" s="30">
+        <v>1</v>
+      </c>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30">
+        <f>P55-O55</f>
+        <v>0</v>
+      </c>
+      <c r="R55" s="35">
+        <f>Q55/G55</f>
+        <v>0</v>
+      </c>
+      <c r="S55" s="30"/>
+      <c r="T55" s="34"/>
+      <c r="U55" s="30">
+        <v>1</v>
+      </c>
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A56" s="43">
-        <v>45</v>
-      </c>
-      <c r="B56" s="43">
-        <v>60889786</v>
-      </c>
-      <c r="C56" s="44">
-        <v>42525</v>
-      </c>
-      <c r="D56" s="44">
-        <v>42525</v>
-      </c>
-      <c r="E56" s="45">
-        <v>42625.986435185187</v>
-      </c>
-      <c r="F56" s="43">
-        <v>2833</v>
-      </c>
-      <c r="G56" s="43">
-        <v>1631</v>
-      </c>
-      <c r="H56" s="43">
-        <v>0.69</v>
-      </c>
-      <c r="I56" s="43">
-        <v>24.86</v>
-      </c>
-      <c r="J56" s="43">
-        <v>1</v>
-      </c>
-      <c r="K56" s="43">
-        <v>1</v>
-      </c>
-      <c r="L56" s="43">
-        <f>IF(R56=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M56" s="43">
-        <v>1</v>
-      </c>
-      <c r="N56" s="43">
-        <v>0</v>
-      </c>
-      <c r="O56" s="43">
-        <v>280</v>
-      </c>
-      <c r="P56" s="43">
-        <f>O56-N56</f>
-        <v>280</v>
-      </c>
-      <c r="Q56" s="46">
-        <f>P56/F56</f>
-        <v>9.8835157077303212E-2</v>
-      </c>
-      <c r="R56" s="43"/>
-      <c r="S56" s="47"/>
-      <c r="T56" s="43">
-        <v>0</v>
-      </c>
-      <c r="U56" s="2"/>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A56" s="30">
+        <v>54</v>
+      </c>
+      <c r="B56" s="30">
+        <v>58</v>
+      </c>
+      <c r="C56" s="30">
+        <v>61358292</v>
+      </c>
+      <c r="D56" s="31">
+        <v>42540</v>
+      </c>
+      <c r="E56" s="31">
+        <v>42540</v>
+      </c>
+      <c r="F56" s="32">
+        <v>42625.107662037037</v>
+      </c>
+      <c r="G56" s="30">
+        <v>1726</v>
+      </c>
+      <c r="H56" s="30">
+        <v>1503</v>
+      </c>
+      <c r="I56" s="30">
+        <v>1.42</v>
+      </c>
+      <c r="J56" s="30">
+        <v>28.922000000000001</v>
+      </c>
+      <c r="K56" s="30">
+        <v>1</v>
+      </c>
+      <c r="L56" s="30">
+        <v>0</v>
+      </c>
+      <c r="M56" s="30">
+        <f>IF(S56=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N56" s="30">
+        <v>1</v>
+      </c>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30">
+        <f>P56-O56</f>
+        <v>0</v>
+      </c>
+      <c r="R56" s="35">
+        <f>Q56/G56</f>
+        <v>0</v>
+      </c>
+      <c r="S56" s="30"/>
+      <c r="T56" s="34"/>
+      <c r="U56" s="30">
+        <v>1</v>
+      </c>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A57" s="43">
-        <v>48</v>
-      </c>
-      <c r="B57" s="43">
-        <v>61138711</v>
-      </c>
-      <c r="C57" s="44">
-        <v>42533</v>
-      </c>
-      <c r="D57" s="44">
-        <v>42533</v>
-      </c>
-      <c r="E57" s="45">
-        <v>42625.091307870367</v>
-      </c>
-      <c r="F57" s="43">
-        <v>3296</v>
-      </c>
-      <c r="G57" s="43">
-        <v>1504</v>
-      </c>
-      <c r="H57" s="43">
-        <v>0.68</v>
-      </c>
-      <c r="I57" s="43">
-        <v>26.52</v>
-      </c>
-      <c r="J57" s="43">
-        <v>1</v>
-      </c>
-      <c r="K57" s="43">
-        <v>1</v>
-      </c>
-      <c r="L57" s="43">
-        <f>IF(R57=1,0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M57" s="43">
-        <v>1</v>
-      </c>
-      <c r="N57" s="43"/>
-      <c r="O57" s="43"/>
-      <c r="P57" s="43">
-        <f>O57-N57</f>
-        <v>0</v>
-      </c>
-      <c r="Q57" s="46">
-        <f>P57/F57</f>
-        <v>0</v>
-      </c>
-      <c r="R57" s="43">
-        <v>1</v>
-      </c>
-      <c r="S57" s="47" t="s">
-        <v>623</v>
-      </c>
-      <c r="T57" s="43">
-        <v>0</v>
-      </c>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2"/>
+    <row r="57" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="30">
+        <v>55</v>
+      </c>
+      <c r="B57" s="30">
+        <v>60</v>
+      </c>
+      <c r="C57" s="30">
+        <v>61442085</v>
+      </c>
+      <c r="D57" s="31">
+        <v>42543</v>
+      </c>
+      <c r="E57" s="31">
+        <v>42543</v>
+      </c>
+      <c r="F57" s="32">
+        <v>42625.071909722225</v>
+      </c>
+      <c r="G57" s="30">
+        <v>3194</v>
+      </c>
+      <c r="H57" s="30">
+        <v>1563</v>
+      </c>
+      <c r="I57" s="30">
+        <v>0.67</v>
+      </c>
+      <c r="J57" s="30">
+        <v>26.094999999999999</v>
+      </c>
+      <c r="K57" s="30">
+        <v>1</v>
+      </c>
+      <c r="L57" s="30">
+        <v>0</v>
+      </c>
+      <c r="M57" s="30">
+        <f>IF(S57=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N57" s="30">
+        <v>1</v>
+      </c>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30">
+        <f>P57-O57</f>
+        <v>0</v>
+      </c>
+      <c r="R57" s="35">
+        <f>Q57/G57</f>
+        <v>0</v>
+      </c>
+      <c r="S57" s="30"/>
+      <c r="T57" s="34"/>
+      <c r="U57" s="30">
+        <v>1</v>
+      </c>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A58" s="43">
-        <v>50</v>
-      </c>
-      <c r="B58" s="43">
-        <v>61157303</v>
-      </c>
-      <c r="C58" s="44">
-        <v>42534</v>
-      </c>
-      <c r="D58" s="44">
-        <v>42534</v>
-      </c>
-      <c r="E58" s="45">
-        <v>42625.020115740743</v>
-      </c>
-      <c r="F58" s="43">
-        <v>3306</v>
-      </c>
-      <c r="G58" s="43">
-        <v>1643</v>
-      </c>
-      <c r="H58" s="43">
-        <v>0.69</v>
-      </c>
-      <c r="I58" s="43">
-        <v>29.49</v>
-      </c>
-      <c r="J58" s="43">
-        <v>1</v>
-      </c>
-      <c r="K58" s="43">
-        <v>1</v>
-      </c>
-      <c r="L58" s="43">
-        <f>IF(R58=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M58" s="43">
-        <v>1</v>
-      </c>
-      <c r="N58" s="43">
-        <v>0</v>
-      </c>
-      <c r="O58" s="43">
-        <v>1625</v>
-      </c>
-      <c r="P58" s="43">
-        <f>O58-N58</f>
-        <v>1625</v>
-      </c>
-      <c r="Q58" s="46">
-        <f>P58/F58</f>
-        <v>0.49153055051421657</v>
-      </c>
-      <c r="R58" s="43"/>
-      <c r="S58" s="47"/>
-      <c r="T58" s="43">
-        <v>0</v>
-      </c>
-      <c r="U58" s="2"/>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A58" s="30">
+        <v>56</v>
+      </c>
+      <c r="B58" s="30">
+        <v>61</v>
+      </c>
+      <c r="C58" s="30">
+        <v>61600207</v>
+      </c>
+      <c r="D58" s="31">
+        <v>42548</v>
+      </c>
+      <c r="E58" s="31">
+        <v>42548</v>
+      </c>
+      <c r="F58" s="32">
+        <v>42625.888078703705</v>
+      </c>
+      <c r="G58" s="30">
+        <v>3436</v>
+      </c>
+      <c r="H58" s="30">
+        <v>1167</v>
+      </c>
+      <c r="I58" s="30">
+        <v>0.71</v>
+      </c>
+      <c r="J58" s="30">
+        <v>22.347999999999999</v>
+      </c>
+      <c r="K58" s="30">
+        <v>1</v>
+      </c>
+      <c r="L58" s="30">
+        <v>1</v>
+      </c>
+      <c r="M58" s="30">
+        <f>IF(S58=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="30">
+        <v>1</v>
+      </c>
+      <c r="O58" s="30">
+        <v>0</v>
+      </c>
+      <c r="P58" s="30">
+        <v>1017</v>
+      </c>
+      <c r="Q58" s="30">
+        <f>P58-O58</f>
+        <v>1017</v>
+      </c>
+      <c r="R58" s="35">
+        <f>Q58/G58</f>
+        <v>0.29598370197904539</v>
+      </c>
+      <c r="S58" s="30">
+        <v>1</v>
+      </c>
+      <c r="T58" s="34" t="s">
+        <v>685</v>
+      </c>
+      <c r="U58" s="30">
+        <v>1</v>
+      </c>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A59" s="43">
-        <v>51</v>
-      </c>
-      <c r="B59" s="43">
-        <v>61239245</v>
-      </c>
-      <c r="C59" s="44">
-        <v>42536</v>
-      </c>
-      <c r="D59" s="44">
-        <v>42536</v>
-      </c>
-      <c r="E59" s="45">
-        <v>42625.683530092596</v>
-      </c>
-      <c r="F59" s="43">
-        <v>3430</v>
-      </c>
-      <c r="G59" s="43">
-        <v>1151</v>
-      </c>
-      <c r="H59" s="43">
-        <v>0.6</v>
-      </c>
-      <c r="I59" s="43">
-        <v>18.614000000000001</v>
-      </c>
-      <c r="J59" s="43">
-        <v>1</v>
-      </c>
-      <c r="K59" s="43">
-        <v>1</v>
-      </c>
-      <c r="L59" s="43">
-        <f>IF(R59=1,0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M59" s="43">
-        <v>1</v>
-      </c>
-      <c r="N59" s="43"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="43">
-        <f>O59-N59</f>
-        <v>0</v>
-      </c>
-      <c r="Q59" s="46">
-        <f>P59/F59</f>
-        <v>0</v>
-      </c>
-      <c r="R59" s="43">
-        <v>1</v>
-      </c>
-      <c r="S59" s="47" t="s">
-        <v>636</v>
-      </c>
-      <c r="T59" s="43">
-        <v>0</v>
-      </c>
-      <c r="U59" s="2"/>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A59" s="30">
+        <v>57</v>
+      </c>
+      <c r="B59" s="30">
+        <v>38</v>
+      </c>
+      <c r="C59" s="30">
+        <v>60011286</v>
+      </c>
+      <c r="D59" s="31">
+        <v>42495</v>
+      </c>
+      <c r="E59" s="31">
+        <v>42495</v>
+      </c>
+      <c r="F59" s="32">
+        <v>42625.086851851855</v>
+      </c>
+      <c r="G59" s="30">
+        <v>3057</v>
+      </c>
+      <c r="H59" s="30">
+        <v>1626</v>
+      </c>
+      <c r="I59" s="30">
+        <v>0.77</v>
+      </c>
+      <c r="J59" s="30">
+        <v>29.85</v>
+      </c>
+      <c r="K59" s="30">
+        <v>1</v>
+      </c>
+      <c r="L59" s="30">
+        <v>1</v>
+      </c>
+      <c r="M59" s="30">
+        <f>IF(S59=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N59" s="30">
+        <v>1</v>
+      </c>
+      <c r="O59" s="30">
+        <v>442</v>
+      </c>
+      <c r="P59" s="30">
+        <v>992</v>
+      </c>
+      <c r="Q59" s="30">
+        <f>P59-O59</f>
+        <v>550</v>
+      </c>
+      <c r="R59" s="35">
+        <f>Q59/G59</f>
+        <v>0.1799149492966961</v>
+      </c>
+      <c r="S59" s="30">
+        <v>1</v>
+      </c>
+      <c r="T59" s="34" t="s">
+        <v>705</v>
+      </c>
+      <c r="U59" s="30">
+        <v>1</v>
+      </c>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A60" s="43">
-        <v>53</v>
-      </c>
-      <c r="B60" s="43">
-        <v>61329256</v>
-      </c>
-      <c r="C60" s="44">
-        <v>42539</v>
-      </c>
-      <c r="D60" s="44">
-        <v>42539</v>
-      </c>
-      <c r="E60" s="45">
-        <v>42625.051041666666</v>
-      </c>
-      <c r="F60" s="43">
-        <v>1806</v>
-      </c>
-      <c r="G60" s="43">
-        <v>1673</v>
-      </c>
-      <c r="H60" s="43">
-        <v>1.25</v>
-      </c>
-      <c r="I60" s="43">
-        <v>29.718</v>
-      </c>
-      <c r="J60" s="43">
-        <v>1</v>
-      </c>
-      <c r="K60" s="43">
-        <v>1</v>
-      </c>
-      <c r="L60" s="43">
-        <f>IF(R60=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M60" s="43">
-        <v>1</v>
-      </c>
-      <c r="N60" s="43">
-        <v>0</v>
-      </c>
-      <c r="O60" s="43">
-        <v>1112</v>
-      </c>
-      <c r="P60" s="43">
-        <f>O60-N60</f>
-        <v>1112</v>
-      </c>
-      <c r="Q60" s="46">
-        <f>P60/F60</f>
-        <v>0.61572535991140642</v>
-      </c>
-      <c r="R60" s="43"/>
-      <c r="S60" s="47"/>
-      <c r="T60" s="43">
-        <v>0</v>
-      </c>
-      <c r="U60" s="2"/>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A60" s="30">
+        <v>58</v>
+      </c>
+      <c r="B60" s="30">
+        <v>34</v>
+      </c>
+      <c r="C60" s="30">
+        <v>59716936</v>
+      </c>
+      <c r="D60" s="31">
+        <v>42485</v>
+      </c>
+      <c r="E60" s="31">
+        <v>42485</v>
+      </c>
+      <c r="F60" s="32">
+        <v>42499.708749999998</v>
+      </c>
+      <c r="G60" s="30">
+        <v>3280</v>
+      </c>
+      <c r="H60" s="30">
+        <v>1690</v>
+      </c>
+      <c r="I60" s="30">
+        <v>0.69</v>
+      </c>
+      <c r="J60" s="30">
+        <v>30.081</v>
+      </c>
+      <c r="K60" s="30">
+        <v>1</v>
+      </c>
+      <c r="L60" s="30">
+        <v>1</v>
+      </c>
+      <c r="M60" s="30">
+        <f>IF(S60=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="30">
+        <v>1</v>
+      </c>
+      <c r="O60" s="30">
+        <v>129</v>
+      </c>
+      <c r="P60" s="30">
+        <v>131</v>
+      </c>
+      <c r="Q60" s="30">
+        <f>P60-O60</f>
+        <v>2</v>
+      </c>
+      <c r="R60" s="35">
+        <f>Q60/G60</f>
+        <v>6.0975609756097561E-4</v>
+      </c>
+      <c r="S60" s="30">
+        <v>1</v>
+      </c>
+      <c r="T60" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="U60" s="30">
+        <v>1</v>
+      </c>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A61" s="43">
-        <v>54</v>
-      </c>
-      <c r="B61" s="43">
-        <v>61345760</v>
-      </c>
-      <c r="C61" s="44">
-        <v>42539</v>
-      </c>
-      <c r="D61" s="44">
-        <v>42539</v>
-      </c>
-      <c r="E61" s="45">
-        <v>42625.505601851852</v>
-      </c>
-      <c r="F61" s="43">
-        <v>3288</v>
-      </c>
-      <c r="G61" s="43">
-        <v>1616</v>
-      </c>
-      <c r="H61" s="43">
-        <v>0.69</v>
-      </c>
-      <c r="I61" s="43">
-        <v>28.888999999999999</v>
-      </c>
-      <c r="J61" s="43">
-        <v>1</v>
-      </c>
-      <c r="K61" s="43">
-        <v>1</v>
-      </c>
-      <c r="L61" s="43">
-        <f>IF(R61=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M61" s="43">
-        <v>1</v>
-      </c>
-      <c r="N61" s="43">
-        <v>0</v>
-      </c>
-      <c r="O61" s="43">
-        <v>961</v>
-      </c>
-      <c r="P61" s="43">
-        <f>O61-N61</f>
-        <v>961</v>
-      </c>
-      <c r="Q61" s="46">
-        <f>P61/F61</f>
-        <v>0.29227493917274938</v>
-      </c>
-      <c r="R61" s="43"/>
-      <c r="S61" s="47"/>
-      <c r="T61" s="43">
-        <v>0</v>
-      </c>
-      <c r="U61" s="2"/>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A61" s="30">
+        <v>59</v>
+      </c>
+      <c r="B61" s="30">
+        <v>10</v>
+      </c>
+      <c r="C61" s="30">
+        <v>58752676</v>
+      </c>
+      <c r="D61" s="31">
+        <v>42453</v>
+      </c>
+      <c r="E61" s="31">
+        <v>42453</v>
+      </c>
+      <c r="F61" s="32">
+        <v>42471.465624999997</v>
+      </c>
+      <c r="G61" s="30">
+        <v>78</v>
+      </c>
+      <c r="H61" s="30">
+        <v>1357</v>
+      </c>
+      <c r="I61" s="30">
+        <v>0.68</v>
+      </c>
+      <c r="J61" s="30">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K61" s="30">
+        <v>1</v>
+      </c>
+      <c r="L61" s="30">
+        <v>0</v>
+      </c>
+      <c r="M61" s="30">
+        <f>IF(S61=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="30">
+        <v>1</v>
+      </c>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="30">
+        <f>P61-O61</f>
+        <v>0</v>
+      </c>
+      <c r="R61" s="35">
+        <f>Q61/G61</f>
+        <v>0</v>
+      </c>
+      <c r="S61" s="30">
+        <v>1</v>
+      </c>
+      <c r="T61" s="34" t="s">
+        <v>712</v>
+      </c>
+      <c r="U61" s="30">
+        <v>1</v>
+      </c>
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A62" s="43">
-        <v>59</v>
-      </c>
-      <c r="B62" s="43">
-        <v>61441985</v>
-      </c>
-      <c r="C62" s="44">
-        <v>42543</v>
-      </c>
-      <c r="D62" s="44">
-        <v>42543</v>
-      </c>
-      <c r="E62" s="45">
-        <v>42625.009826388887</v>
-      </c>
-      <c r="F62" s="43">
-        <v>3382</v>
-      </c>
-      <c r="G62" s="43">
-        <v>1614</v>
-      </c>
-      <c r="H62" s="43">
-        <v>0.69</v>
-      </c>
-      <c r="I62" s="43">
-        <v>29.692</v>
-      </c>
-      <c r="J62" s="43">
-        <v>1</v>
-      </c>
-      <c r="K62" s="43">
-        <v>1</v>
-      </c>
-      <c r="L62" s="43">
-        <f>IF(R62=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="M62" s="43">
-        <v>1</v>
-      </c>
-      <c r="N62" s="43">
-        <v>0</v>
-      </c>
-      <c r="O62" s="43">
-        <v>1175</v>
-      </c>
-      <c r="P62" s="43">
-        <f>O62-N62</f>
-        <v>1175</v>
-      </c>
-      <c r="Q62" s="46">
-        <f>P62/F62</f>
-        <v>0.34742755765819044</v>
-      </c>
-      <c r="R62" s="43"/>
-      <c r="S62" s="47"/>
-      <c r="T62" s="43">
-        <v>0</v>
-      </c>
-      <c r="U62" s="2"/>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A62" s="30">
+        <v>60</v>
+      </c>
+      <c r="B62" s="30">
+        <v>48</v>
+      </c>
+      <c r="C62" s="30">
+        <v>61138711</v>
+      </c>
+      <c r="D62" s="31">
+        <v>42533</v>
+      </c>
+      <c r="E62" s="31">
+        <v>42533</v>
+      </c>
+      <c r="F62" s="32">
+        <v>42625.091307870367</v>
+      </c>
+      <c r="G62" s="30">
+        <v>3296</v>
+      </c>
+      <c r="H62" s="30">
+        <v>1504</v>
+      </c>
+      <c r="I62" s="30">
+        <v>0.68</v>
+      </c>
+      <c r="J62" s="30">
+        <v>26.52</v>
+      </c>
+      <c r="K62" s="30">
+        <v>1</v>
+      </c>
+      <c r="L62" s="30">
+        <v>1</v>
+      </c>
+      <c r="M62" s="30">
+        <f>IF(S62=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="30">
+        <v>1</v>
+      </c>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30">
+        <f>P62-O62</f>
+        <v>0</v>
+      </c>
+      <c r="R62" s="35">
+        <f>Q62/G62</f>
+        <v>0</v>
+      </c>
+      <c r="S62" s="30">
+        <v>1</v>
+      </c>
+      <c r="T62" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="U62" s="30">
+        <v>1</v>
+      </c>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="30">
         <v>61</v>
       </c>
       <c r="B63" s="30">
-        <v>61600207</v>
-      </c>
-      <c r="C63" s="31">
-        <v>42548</v>
+        <v>51</v>
+      </c>
+      <c r="C63" s="30">
+        <v>61239245</v>
       </c>
       <c r="D63" s="31">
-        <v>42548</v>
-      </c>
-      <c r="E63" s="32">
-        <v>42625.888078703705</v>
-      </c>
-      <c r="F63" s="30">
-        <v>3436</v>
+        <v>42536</v>
+      </c>
+      <c r="E63" s="31">
+        <v>42536</v>
+      </c>
+      <c r="F63" s="32">
+        <v>42625.683530092596</v>
       </c>
       <c r="G63" s="30">
-        <v>1167</v>
+        <v>3430</v>
       </c>
       <c r="H63" s="30">
-        <v>0.71</v>
+        <v>1151</v>
       </c>
       <c r="I63" s="30">
-        <v>22.347999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="J63" s="30">
-        <v>1</v>
+        <v>18.614000000000001</v>
       </c>
       <c r="K63" s="30">
         <v>1</v>
       </c>
       <c r="L63" s="30">
-        <f>IF(R63=1,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" s="30">
-        <v>1</v>
+        <f>IF(S63=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="N63" s="30">
-        <v>0</v>
-      </c>
-      <c r="O63" s="30">
-        <v>1017</v>
-      </c>
-      <c r="P63" s="30">
-        <f>O63-N63</f>
-        <v>1017</v>
-      </c>
-      <c r="Q63" s="35">
-        <f>P63/F63</f>
-        <v>0.29598370197904539</v>
-      </c>
-      <c r="R63" s="30">
-        <v>1</v>
-      </c>
-      <c r="S63" s="34" t="s">
-        <v>685</v>
-      </c>
-      <c r="T63" s="30">
-        <v>1</v>
-      </c>
-      <c r="U63" s="8"/>
-      <c r="V63" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30">
+        <f>P63-O63</f>
+        <v>0</v>
+      </c>
+      <c r="R63" s="35">
+        <f>Q63/G63</f>
+        <v>0</v>
+      </c>
+      <c r="S63" s="30">
+        <v>1</v>
+      </c>
+      <c r="T63" s="34" t="s">
+        <v>636</v>
+      </c>
+      <c r="U63" s="30">
+        <v>1</v>
+      </c>
+      <c r="V63" s="8"/>
       <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="T64" s="2"/>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="T65" s="2"/>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="T66" s="2"/>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="T67" s="2"/>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="T68" s="2"/>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
     </row>
-    <row r="69" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69"/>
+    <row r="69" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="44"/>
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
@@ -8645,192 +8827,192 @@
       <c r="Q69"/>
       <c r="R69"/>
       <c r="S69"/>
-      <c r="T69" s="2"/>
+      <c r="T69"/>
       <c r="U69" s="2"/>
-      <c r="V69" s="8"/>
+      <c r="V69" s="2"/>
       <c r="W69" s="8"/>
+      <c r="X69" s="8"/>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="T70" s="2"/>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="T71" s="2"/>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="T72" s="2"/>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="J73" s="41">
-        <f>SUM(T2:T65)</f>
-        <v>24</v>
-      </c>
-      <c r="K73">
-        <f>SUM(J2:J65)</f>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K73" s="38">
+        <f>SUM(U2:U65)</f>
         <v>62</v>
       </c>
-      <c r="T73" s="2"/>
+      <c r="L73">
+        <f>SUM(K2:K65)</f>
+        <v>62</v>
+      </c>
+      <c r="M73" s="38">
+        <f>L73-K73</f>
+        <v>0</v>
+      </c>
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="J74" s="42">
-        <f>J73/K73</f>
-        <v>0.38709677419354838</v>
-      </c>
-      <c r="T74" s="2"/>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K74" s="39">
+        <f>K73/L73</f>
+        <v>1</v>
+      </c>
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="T75" s="2"/>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="T76" s="2"/>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="T77" s="2"/>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="T78" s="2"/>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="T79" s="2"/>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="T80" s="2"/>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
     </row>
-    <row r="81" spans="20:23" x14ac:dyDescent="0.2">
-      <c r="T81" s="2"/>
+    <row r="81" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
     </row>
-    <row r="82" spans="20:23" x14ac:dyDescent="0.2">
-      <c r="T82" s="2"/>
+    <row r="82" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
     </row>
-    <row r="83" spans="20:23" x14ac:dyDescent="0.2">
-      <c r="T83" s="2"/>
+    <row r="83" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
     </row>
-    <row r="84" spans="20:23" x14ac:dyDescent="0.2">
-      <c r="T84" s="2"/>
+    <row r="84" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
     </row>
-    <row r="85" spans="20:23" x14ac:dyDescent="0.2">
-      <c r="T85" s="2"/>
+    <row r="85" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
       <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
     </row>
-    <row r="86" spans="20:23" x14ac:dyDescent="0.2">
-      <c r="T86" s="2"/>
+    <row r="86" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
+      <c r="X86" s="2"/>
     </row>
-    <row r="87" spans="20:23" x14ac:dyDescent="0.2">
-      <c r="T87" s="2"/>
+    <row r="87" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
       <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
     </row>
-    <row r="88" spans="20:23" x14ac:dyDescent="0.2">
-      <c r="T88" s="2"/>
+    <row r="88" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
       <c r="W88" s="2"/>
+      <c r="X88" s="2"/>
     </row>
-    <row r="89" spans="20:23" x14ac:dyDescent="0.2">
-      <c r="T89" s="2"/>
+    <row r="89" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
       <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
     </row>
-    <row r="90" spans="20:23" x14ac:dyDescent="0.2">
-      <c r="T90" s="2"/>
+    <row r="90" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U90" s="2"/>
       <c r="V90" s="2"/>
       <c r="W90" s="2"/>
+      <c r="X90" s="2"/>
     </row>
-    <row r="91" spans="20:23" x14ac:dyDescent="0.2">
-      <c r="T91" s="2"/>
+    <row r="91" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
+      <c r="X91" s="2"/>
     </row>
-    <row r="92" spans="20:23" x14ac:dyDescent="0.2">
-      <c r="T92" s="2"/>
+    <row r="92" spans="21:24" x14ac:dyDescent="0.2">
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
+      <c r="X92" s="2"/>
     </row>
-    <row r="93" spans="20:23" x14ac:dyDescent="0.2">
-      <c r="V93" s="2"/>
+    <row r="93" spans="21:24" x14ac:dyDescent="0.2">
       <c r="W93" s="2"/>
+      <c r="X93" s="2"/>
     </row>
-    <row r="94" spans="20:23" x14ac:dyDescent="0.2">
-      <c r="V94" s="2"/>
+    <row r="94" spans="21:24" x14ac:dyDescent="0.2">
       <c r="W94" s="2"/>
+      <c r="X94" s="2"/>
     </row>
-    <row r="95" spans="20:23" x14ac:dyDescent="0.2">
-      <c r="V95" s="2"/>
+    <row r="95" spans="21:24" x14ac:dyDescent="0.2">
       <c r="W95" s="2"/>
+      <c r="X95" s="2"/>
     </row>
-    <row r="96" spans="20:23" x14ac:dyDescent="0.2">
-      <c r="V96" s="2"/>
+    <row r="96" spans="21:24" x14ac:dyDescent="0.2">
       <c r="W96" s="2"/>
+      <c r="X96" s="2"/>
     </row>
-    <row r="97" spans="22:23" x14ac:dyDescent="0.2">
-      <c r="V97" s="2"/>
+    <row r="97" spans="23:24" x14ac:dyDescent="0.2">
       <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
     </row>
-    <row r="98" spans="22:23" x14ac:dyDescent="0.2">
-      <c r="V98" s="2"/>
+    <row r="98" spans="23:24" x14ac:dyDescent="0.2">
       <c r="W98" s="2"/>
+      <c r="X98" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T63">
-    <sortState ref="A2:T63">
-      <sortCondition ref="K2:K63"/>
-    </sortState>
-  </autoFilter>
-  <sortState ref="A2:T107">
+  <sortState ref="A2:U63">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
